--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C78D6E-0577-440D-B314-28BA72F915E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="167">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -972,9 +978,6 @@
 7、饮食健康清淡  10分</t>
   </si>
   <si>
-    <t>6.14-6.18</t>
-  </si>
-  <si>
     <t>前端：学习React
 leetcode:盛最多水的容器(数组，双指针)
 移动零（数组，双指针）</t>
@@ -991,13 +994,6 @@
   </si>
   <si>
     <t>前端：学习React</t>
-  </si>
-  <si>
-    <t>前端：学习React
-leetcode:反转链表（链表）
-相交链表（链表）
-回文链表(链表)
-删除链表的倒数第 N 个结点（双指针，链表）</t>
   </si>
   <si>
     <t>1、每天阅读书籍半小时  0分
@@ -1220,18 +1216,37 @@
   <si>
     <t>多看技术文章，了解前沿技术</t>
   </si>
+  <si>
+    <t>6.14-6.20</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.21-6.27</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：学习React
+leetcode:反转链表（链表）
+相交链表（链表）
+回文链表(链表)
+删除链表的倒数第 N 个结点（双指针，链表）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：学习CSS
+leetcode:环形链表（链表）
+合并区间（排序）
+颜色分类(排序)
+合并区间（排序）
+排序链表（排序、链表）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,151 +1286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1458,8 +1329,14 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1478,188 +1355,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1667,258 +1364,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1945,11 +1400,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1960,68 +1412,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2279,864 +1694,873 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="9"/>
-    <col min="2" max="8" width="16.125" style="10"/>
-    <col min="9" max="9" width="16.125" style="11"/>
-    <col min="10" max="16384" width="16.125" style="10"/>
+    <col min="1" max="1" width="16.125" style="8"/>
+    <col min="2" max="8" width="16.125" style="9"/>
+    <col min="9" max="9" width="16.125" style="10"/>
+    <col min="10" max="16384" width="16.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0.23</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="10">
         <v>0.18</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10">
         <v>0.1</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="10">
         <v>0.1</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>0.1</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>0.05</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>0.25</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="10">
         <v>0.15</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="10">
         <v>0.05</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="10">
         <v>0.05</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="10">
         <v>0.05</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.25</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>0.43</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>0.38</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>0.18</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="F19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="10">
         <v>0.15</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>0.13</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="G21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="10">
         <v>0.05</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10">
         <v>0.11</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="F23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="10">
         <v>0.11</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>0.53</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="G25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="10">
         <v>0.25</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="17">
+      <c r="G26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="15">
         <v>0.35</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>105</v>
+    </row>
+    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I$1:I$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3145,19 +2569,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5d53022c-c501-4dcc-ba0b-84af8c338e70}</x14:id>
+          <x14:id>{5D53022C-C501-4DCC-BA0B-84AF8C338E70}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5d53022c-c501-4dcc-ba0b-84af8c338e70}">
+          <x14:cfRule type="dataBar" id="{5D53022C-C501-4DCC-BA0B-84AF8C338E70}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3167,7 +2590,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I$1:I$1048576</xm:sqref>
+          <xm:sqref>I1:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3176,210 +2599,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="34.75" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="34.75" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" ht="50" spans="1:6">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="5">
+      <c r="D3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" ht="100" spans="1:7">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="38" spans="1:7">
-      <c r="A4" s="5">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" ht="38" spans="1:6">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="62" spans="1:7">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" ht="87" spans="1:6">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="5">
+      <c r="D8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" ht="38" spans="1:7">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" ht="50" spans="1:7">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="50" spans="1:6">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F$1:F$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3388,19 +2811,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b1fd8523-bcce-4f71-a19f-db30cec3cf14}</x14:id>
+          <x14:id>{B1FD8523-BCCE-4F71-A19F-DB30CEC3CF14}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b1fd8523-bcce-4f71-a19f-db30cec3cf14}">
+          <x14:cfRule type="dataBar" id="{B1FD8523-BCCE-4F71-A19F-DB30CEC3CF14}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3410,7 +2832,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F$1:F$1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3419,77 +2841,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
         <v>145</v>
       </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3497,76 +2918,75 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" ht="38" spans="1:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>152</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" ht="112" spans="1:2">
-      <c r="A9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>155</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -3574,52 +2994,52 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="C2" t="s">
         <v>158</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" t="s">
         <v>159</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" t="s">
         <v>161</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C78D6E-0577-440D-B314-28BA72F915E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -978,6 +972,9 @@
 7、饮食健康清淡  10分</t>
   </si>
   <si>
+    <t>6.14-6.20</t>
+  </si>
+  <si>
     <t>前端：学习React
 leetcode:盛最多水的容器(数组，双指针)
 移动零（数组，双指针）</t>
@@ -994,6 +991,13 @@
   </si>
   <si>
     <t>前端：学习React</t>
+  </si>
+  <si>
+    <t>前端：学习React
+leetcode:反转链表（链表）
+相交链表（链表）
+回文链表(链表)
+删除链表的倒数第 N 个结点（双指针，链表）</t>
   </si>
   <si>
     <t>1、每天阅读书籍半小时  0分
@@ -1005,6 +1009,20 @@
 7、饮食健康清淡  10分</t>
   </si>
   <si>
+    <t>6.21-6.27</t>
+  </si>
+  <si>
+    <t>前端：学习CSS
+leetcode:环形链表（链表）
+合并区间（排序）
+颜色分类(排序)
+合并区间（排序）
+排序链表（排序、链表）</t>
+  </si>
+  <si>
+    <t>前端：学习CSS</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1216,37 +1234,18 @@
   <si>
     <t>多看技术文章，了解前沿技术</t>
   </si>
-  <si>
-    <t>6.14-6.20</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.21-6.27</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习React
-leetcode:反转链表（链表）
-相交链表（链表）
-回文链表(链表)
-删除链表的倒数第 N 个结点（双指针，链表）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习CSS
-leetcode:环形链表（链表）
-合并区间（排序）
-颜色分类(排序)
-合并区间（排序）
-排序链表（排序、链表）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,7 +1285,151 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1329,14 +1472,8 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1355,8 +1492,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1364,10 +1687,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,6 +1939,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1400,8 +1965,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1412,31 +1980,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1694,873 +2299,881 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="8"/>
-    <col min="2" max="8" width="16.125" style="9"/>
-    <col min="9" max="9" width="16.125" style="10"/>
-    <col min="10" max="16384" width="16.125" style="9"/>
+    <col min="1" max="1" width="16.125" style="9"/>
+    <col min="2" max="8" width="16.125" style="10"/>
+    <col min="9" max="9" width="16.125" style="11"/>
+    <col min="10" max="16384" width="16.125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>0.23</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
         <v>0.18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11">
         <v>0.1</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11">
         <v>0.1</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>0.1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <v>0.05</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>0.25</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
         <v>0.15</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
         <v>0.05</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
         <v>0.05</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="11">
         <v>0.05</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" customHeight="1" spans="1:10">
+      <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="11">
         <v>0.25</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="11">
         <v>0.43</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="11">
         <v>0.38</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.18</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
         <v>0.15</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="11">
         <v>0.13</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
         <v>0.05</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="H22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11">
         <v>0.11</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11">
         <v>0.11</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <v>0.53</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="G25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="11">
         <v>0.25</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="17">
         <v>0.35</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="9" t="s">
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="10">
+      <c r="F27" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="11">
         <v>0.25</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>166</v>
+      <c r="J27" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I$1:I$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2569,18 +3182,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5D53022C-C501-4DCC-BA0B-84AF8C338E70}</x14:id>
+          <x14:id>{8cd51391-53be-4cdf-a642-865249a14118}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5D53022C-C501-4DCC-BA0B-84AF8C338E70}">
+          <x14:cfRule type="dataBar" id="{8cd51391-53be-4cdf-a642-865249a14118}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2590,7 +3204,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>I$1:I$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2599,210 +3213,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="34.75" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="34.75" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="3" t="s">
+    <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="C1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" ht="50" spans="1:6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="100" spans="1:7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="38" spans="1:7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="38" spans="1:6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="62" spans="1:7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="87" spans="1:6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="38" spans="1:7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="50" spans="1:7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="50" spans="1:6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F$1:F$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2811,18 +3425,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B1FD8523-BCCE-4F71-A19F-DB30CEC3CF14}</x14:id>
+          <x14:id>{2622e138-f94f-47bc-a289-fd63e572e160}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B1FD8523-BCCE-4F71-A19F-DB30CEC3CF14}">
+          <x14:cfRule type="dataBar" id="{2622e138-f94f-47bc-a289-fd63e572e160}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2832,7 +3447,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F$1:F$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2841,76 +3456,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2918,75 +3534,76 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" ht="38" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
         <v>150</v>
       </c>
-      <c r="C8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" ht="112" spans="1:2">
       <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -2994,52 +3611,52 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F3291-FDE5-4163-9D03-6260A2587E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="171">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1000,6 +1006,230 @@
 删除链表的倒数第 N 个结点（双指针，链表）</t>
   </si>
   <si>
+    <t>前端：学习CSS
+leetcode:环形链表（链表）
+合并区间（排序）
+颜色分类(排序)
+合并区间（排序）
+排序链表（排序、链表）</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>小目标</t>
+  </si>
+  <si>
+    <t>实现计划要做的努力</t>
+  </si>
+  <si>
+    <t>重要程度（满分5分）</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>完成情况说明</t>
+  </si>
+  <si>
+    <t>身体健康</t>
+  </si>
+  <si>
+    <t>1.打羽毛球锻炼身体
+2.健身塑形</t>
+  </si>
+  <si>
+    <t>1.打羽毛球
+2.早睡，早起养成好习惯
+3.练习帕梅拉或者美丽芭蕾（每周2次）</t>
+  </si>
+  <si>
+    <t>事业更上一层楼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.存款10万+
+2.月薪达到20K
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.降低每月消费
+2.学会理财投资
+1.月薪要达到20K,需要跳槽
+2.学习前端知识，巩固技能
+3.开发自己的项目   √</t>
+  </si>
+  <si>
+    <t>孝敬父母</t>
+  </si>
+  <si>
+    <t>1.给爸爸攒钱换车
+2.为家里添置家具
+3.提高家人生活质量</t>
+  </si>
+  <si>
+    <t>1.攒钱</t>
+  </si>
+  <si>
+    <t>最少阅读24本书籍</t>
+  </si>
+  <si>
+    <t>1.每天晚上睡前阅读30分钟以上
+2.利用零碎时间进行阅读（比如：午休等）</t>
+  </si>
+  <si>
+    <t>做职业规划</t>
+  </si>
+  <si>
+    <t>1.多了解其他行业，为以后择业做打算
+2.了解自己适合什么，擅长什么
+3.尝试做一门副业来增加收入，并找到其他行业的可能性</t>
+  </si>
+  <si>
+    <t>软技能提升</t>
+  </si>
+  <si>
+    <t>1.学习英语
+2.公共软件的使用
+3.拿到驾照</t>
+  </si>
+  <si>
+    <t>1.尽可能多的记住生活中使用的英文
+2.创造英文使用环境（读英文技术文章，听英文电台）
+3.利用空余时间学习办公软件的使用（world,PPT,Excel）
+4.尽快练车考驾照</t>
+  </si>
+  <si>
+    <t>兴趣爱好</t>
+  </si>
+  <si>
+    <t>1.开始练习古典吉他曲，争取达到4级水平
+2.打羽毛球</t>
+  </si>
+  <si>
+    <t>1.每周至少2次吉他练习
+2.每周打一次羽毛球</t>
+  </si>
+  <si>
+    <t>交友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.多和比自己优秀的人学习
+2.变得更加落落大方
+</t>
+  </si>
+  <si>
+    <t>1.多参加有意义的聚会和讨论，不要怕生
+2.认识更多有趣的人和事</t>
+  </si>
+  <si>
+    <t>经营生活</t>
+  </si>
+  <si>
+    <t>1.更了解他，让2人更加合拍，共同规划未来
+2.打扮自己，皮肤保养，身材锻炼</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>频率</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>阅读书籍</t>
+  </si>
+  <si>
+    <t>每天半小时</t>
+  </si>
+  <si>
+    <t>20分</t>
+  </si>
+  <si>
+    <t>学习前端知识</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>学习理财知识</t>
+  </si>
+  <si>
+    <t>每周3小时</t>
+  </si>
+  <si>
+    <t>10分</t>
+  </si>
+  <si>
+    <t>每周2次，2小时</t>
+  </si>
+  <si>
+    <t>11点半之后不玩手机，12点前睡觉</t>
+  </si>
+  <si>
+    <t>健身塑形</t>
+  </si>
+  <si>
+    <t>打羽毛球
+每周至少2次美丽芭蕾天鹅臂
+或者练习帕梅拉</t>
+  </si>
+  <si>
+    <t>饮食健康清淡</t>
+  </si>
+  <si>
+    <t>除了改善伙食，饮食尽量健康清淡</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时
+2、学习前端知识
+3、每周学习理财知识3小时
+4、每周练习吉他2次，每次至少一小时
+5、每天11点之后不玩手机，12点前睡觉
+6.健身塑形
+7.饮食健康清淡</t>
+  </si>
+  <si>
+    <t>详细描述</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>1.基础知识薄弱</t>
+  </si>
+  <si>
+    <t>系统地学习基础知识，将已有的知识点串联起来</t>
+  </si>
+  <si>
+    <t>2.缺乏思考</t>
+  </si>
+  <si>
+    <t>在平时做项目，多思考，多总结，拿出最优的解决方案，形成自己的方法论</t>
+  </si>
+  <si>
+    <t>3.缺乏学习</t>
+  </si>
+  <si>
+    <t>多看技术文章，了解前沿技术</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>1、每天阅读书籍半小时  0分
 2、学习前端知识（vue基础知识梳理一遍）  15分
 3、每周学习理财知识3小时  0分
@@ -1007,245 +1237,39 @@
 5、每天11点之后不玩手机，12点前睡觉  0分
 6、健身塑形 0分
 7、饮食健康清淡  10分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时  0分
+2、学习前端知识 0分
+3、每周学习理财知识3小时  0分
+4、每周练习吉他2次，每次至少一小时  0分
+5、每天11点之后不玩手机，12点前睡觉  0分
+6、健身塑形 0分
+7、饮食健康清淡  10分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>6.21-6.27</t>
-  </si>
-  <si>
-    <t>前端：学习CSS
-leetcode:环形链表（链表）
-合并区间（排序）
-颜色分类(排序)
-合并区间（排序）
-排序链表（排序、链表）</t>
-  </si>
-  <si>
-    <t>前端：学习CSS</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>小目标</t>
-  </si>
-  <si>
-    <t>实现计划要做的努力</t>
-  </si>
-  <si>
-    <t>重要程度（满分5分）</t>
-  </si>
-  <si>
-    <t>完成度</t>
-  </si>
-  <si>
-    <t>完成情况说明</t>
-  </si>
-  <si>
-    <t>身体健康</t>
-  </si>
-  <si>
-    <t>1.打羽毛球锻炼身体
-2.健身塑形</t>
-  </si>
-  <si>
-    <t>1.打羽毛球
-2.早睡，早起养成好习惯
-3.练习帕梅拉或者美丽芭蕾（每周2次）</t>
-  </si>
-  <si>
-    <t>事业更上一层楼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.存款10万+
-2.月薪达到20K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.降低每月消费
-2.学会理财投资
-1.月薪要达到20K,需要跳槽
-2.学习前端知识，巩固技能
-3.开发自己的项目   √</t>
-  </si>
-  <si>
-    <t>孝敬父母</t>
-  </si>
-  <si>
-    <t>1.给爸爸攒钱换车
-2.为家里添置家具
-3.提高家人生活质量</t>
-  </si>
-  <si>
-    <t>1.攒钱</t>
-  </si>
-  <si>
-    <t>最少阅读24本书籍</t>
-  </si>
-  <si>
-    <t>1.每天晚上睡前阅读30分钟以上
-2.利用零碎时间进行阅读（比如：午休等）</t>
-  </si>
-  <si>
-    <t>做职业规划</t>
-  </si>
-  <si>
-    <t>1.多了解其他行业，为以后择业做打算
-2.了解自己适合什么，擅长什么
-3.尝试做一门副业来增加收入，并找到其他行业的可能性</t>
-  </si>
-  <si>
-    <t>软技能提升</t>
-  </si>
-  <si>
-    <t>1.学习英语
-2.公共软件的使用
-3.拿到驾照</t>
-  </si>
-  <si>
-    <t>1.尽可能多的记住生活中使用的英文
-2.创造英文使用环境（读英文技术文章，听英文电台）
-3.利用空余时间学习办公软件的使用（world,PPT,Excel）
-4.尽快练车考驾照</t>
-  </si>
-  <si>
-    <t>兴趣爱好</t>
-  </si>
-  <si>
-    <t>1.开始练习古典吉他曲，争取达到4级水平
-2.打羽毛球</t>
-  </si>
-  <si>
-    <t>1.每周至少2次吉他练习
-2.每周打一次羽毛球</t>
-  </si>
-  <si>
-    <t>交友</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.多和比自己优秀的人学习
-2.变得更加落落大方
-</t>
-  </si>
-  <si>
-    <t>1.多参加有意义的聚会和讨论，不要怕生
-2.认识更多有趣的人和事</t>
-  </si>
-  <si>
-    <t>经营生活</t>
-  </si>
-  <si>
-    <t>1.更了解他，让2人更加合拍，共同规划未来
-2.打扮自己，皮肤保养，身材锻炼</t>
-  </si>
-  <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>频率</t>
-  </si>
-  <si>
-    <t>总分</t>
-  </si>
-  <si>
-    <t>阅读书籍</t>
-  </si>
-  <si>
-    <t>每天半小时</t>
-  </si>
-  <si>
-    <t>20分</t>
-  </si>
-  <si>
-    <t>学习前端知识</t>
-  </si>
-  <si>
-    <t>每天</t>
-  </si>
-  <si>
-    <t>学习理财知识</t>
-  </si>
-  <si>
-    <t>每周3小时</t>
-  </si>
-  <si>
-    <t>10分</t>
-  </si>
-  <si>
-    <t>每周2次，2小时</t>
-  </si>
-  <si>
-    <t>11点半之后不玩手机，12点前睡觉</t>
-  </si>
-  <si>
-    <t>健身塑形</t>
-  </si>
-  <si>
-    <t>打羽毛球
-每周至少2次美丽芭蕾天鹅臂
-或者练习帕梅拉</t>
-  </si>
-  <si>
-    <t>饮食健康清淡</t>
-  </si>
-  <si>
-    <t>除了改善伙食，饮食尽量健康清淡</t>
-  </si>
-  <si>
-    <t>总结</t>
-  </si>
-  <si>
-    <t>1、每天阅读书籍半小时
-2、学习前端知识
-3、每周学习理财知识3小时
-4、每周练习吉他2次，每次至少一小时
-5、每天11点之后不玩手机，12点前睡觉
-6.健身塑形
-7.饮食健康清淡</t>
-  </si>
-  <si>
-    <t>详细描述</t>
-  </si>
-  <si>
-    <t>解决方案</t>
-  </si>
-  <si>
-    <t>缺点</t>
-  </si>
-  <si>
-    <t>1.基础知识薄弱</t>
-  </si>
-  <si>
-    <t>系统地学习基础知识，将已有的知识点串联起来</t>
-  </si>
-  <si>
-    <t>2.缺乏思考</t>
-  </si>
-  <si>
-    <t>在平时做项目，多思考，多总结，拿出最优的解决方案，形成自己的方法论</t>
-  </si>
-  <si>
-    <t>3.缺乏学习</t>
-  </si>
-  <si>
-    <t>多看技术文章，了解前沿技术</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.28-7.04</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）
+2.驾校视频看完并刷完题目（20分）
+3.11点前半睡觉（20分）
+4.学习基础理财知识（10分）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,151 +1309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1472,8 +1352,14 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1492,194 +1378,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1687,258 +1387,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1965,11 +1423,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1980,68 +1435,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2299,881 +1717,905 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="9"/>
-    <col min="2" max="8" width="16.125" style="10"/>
-    <col min="9" max="9" width="16.125" style="11"/>
-    <col min="10" max="16384" width="16.125" style="10"/>
+    <col min="1" max="1" width="16.125" style="8"/>
+    <col min="2" max="8" width="16.125" style="9"/>
+    <col min="9" max="9" width="16.125" style="10"/>
+    <col min="10" max="16384" width="16.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0.23</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="10">
         <v>0.18</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10">
         <v>0.1</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="10">
         <v>0.1</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>0.1</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>0.05</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>0.25</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="10">
         <v>0.15</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="10">
         <v>0.05</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="10">
         <v>0.05</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="10">
         <v>0.05</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.25</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>0.43</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>0.38</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>0.18</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="F19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="10">
         <v>0.15</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>0.13</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="G21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="10">
         <v>0.05</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10">
         <v>0.11</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="F23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="10">
         <v>0.11</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>0.53</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="G25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="10">
         <v>0.25</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="17">
+      <c r="G26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="15">
         <v>0.35</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>0.25</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>108</v>
+      <c r="C28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I$1:I$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3182,19 +2624,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8cd51391-53be-4cdf-a642-865249a14118}</x14:id>
+          <x14:id>{8CD51391-53BE-4CDF-A642-865249A14118}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8cd51391-53be-4cdf-a642-865249a14118}">
+          <x14:cfRule type="dataBar" id="{8CD51391-53BE-4CDF-A642-865249A14118}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3204,7 +2645,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I$1:I$1048576</xm:sqref>
+          <xm:sqref>I1:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3213,210 +2654,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="34.75" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="34.75" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" ht="50" spans="1:6">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" ht="100" spans="1:7">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="38" spans="1:7">
-      <c r="A4" s="5">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" ht="38" spans="1:6">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="62" spans="1:7">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" ht="87" spans="1:6">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" ht="38" spans="1:7">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" ht="50" spans="1:7">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="50" spans="1:6">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F$1:F$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3425,19 +2866,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2622e138-f94f-47bc-a289-fd63e572e160}</x14:id>
+          <x14:id>{2622E138-F94F-47BC-A289-FD63E572E160}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2622e138-f94f-47bc-a289-fd63e572e160}">
+          <x14:cfRule type="dataBar" id="{2622E138-F94F-47BC-A289-FD63E572E160}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3447,7 +2887,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F$1:F$1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3456,77 +2896,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3534,76 +2973,75 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" ht="38" spans="1:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" ht="112" spans="1:2">
-      <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>158</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -3611,52 +3049,52 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" t="s">
         <v>161</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>162</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F3291-FDE5-4163-9D03-6260A2587E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1006,12 +1000,45 @@
 删除链表的倒数第 N 个结点（双指针，链表）</t>
   </si>
   <si>
+    <t>1、每天阅读书籍半小时  0分
+2、学习前端知识（vue基础知识梳理一遍）  15分
+3、每周学习理财知识3小时  0分
+4、每周练习吉他2次，每次至少一小时  0分
+5、每天11点之后不玩手机，12点前睡觉  0分
+6、健身塑形 0分
+7、饮食健康清淡  10分</t>
+  </si>
+  <si>
+    <t>6.21-6.27</t>
+  </si>
+  <si>
     <t>前端：学习CSS
 leetcode:环形链表（链表）
 合并区间（排序）
 颜色分类(排序)
 合并区间（排序）
 排序链表（排序、链表）</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时  0分
+2、学习前端知识 0分
+3、每周学习理财知识3小时  0分
+4、每周练习吉他2次，每次至少一小时  0分
+5、每天11点之后不玩手机，12点前睡觉  0分
+6、健身塑形 0分
+7、饮食健康清淡  10分</t>
+  </si>
+  <si>
+    <t>6.28-7.04</t>
+  </si>
+  <si>
+    <t>前端：学习JS</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）
+2.驾校视频看完并刷完题目（20分）
+3.11点前半睡觉（20分）
+4.学习基础理财知识（10分）</t>
   </si>
   <si>
     <t>序号</t>
@@ -1225,51 +1252,18 @@
   <si>
     <t>多看技术文章，了解前沿技术</t>
   </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、每天阅读书籍半小时  0分
-2、学习前端知识（vue基础知识梳理一遍）  15分
-3、每周学习理财知识3小时  0分
-4、每周练习吉他2次，每次至少一小时  0分
-5、每天11点之后不玩手机，12点前睡觉  0分
-6、健身塑形 0分
-7、饮食健康清淡  10分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、每天阅读书籍半小时  0分
-2、学习前端知识 0分
-3、每周学习理财知识3小时  0分
-4、每周练习吉他2次，每次至少一小时  0分
-5、每天11点之后不玩手机，12点前睡觉  0分
-6、健身塑形 0分
-7、饮食健康清淡  10分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.21-6.27</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.28-7.04</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）
-2.驾校视频看完并刷完题目（20分）
-3.11点前半睡觉（20分）
-4.学习基础理财知识（10分）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1309,7 +1303,151 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1352,14 +1490,8 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1378,8 +1510,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1387,10 +1705,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1400,6 +1957,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1423,8 +1983,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1435,31 +1998,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1717,905 +2317,916 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="8"/>
-    <col min="2" max="8" width="16.125" style="9"/>
-    <col min="9" max="9" width="16.125" style="10"/>
-    <col min="10" max="16384" width="16.125" style="9"/>
+    <col min="1" max="1" width="16.125" style="9"/>
+    <col min="2" max="8" width="16.125" style="10"/>
+    <col min="9" max="9" width="16.125" style="11"/>
+    <col min="10" max="16384" width="16.125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>0.23</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
         <v>0.18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11">
         <v>0.1</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11">
         <v>0.1</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>0.1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <v>0.05</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>0.25</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
         <v>0.15</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
         <v>0.05</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
         <v>0.05</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="11">
         <v>0.05</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" customHeight="1" spans="1:10">
+      <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="11">
         <v>0.25</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="11">
         <v>0.43</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="11">
         <v>0.38</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.18</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
         <v>0.15</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="11">
         <v>0.13</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
         <v>0.05</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="H22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11">
         <v>0.11</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11">
         <v>0.11</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <v>0.53</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="G25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="11">
         <v>0.25</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="17">
         <v>0.35</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <v>0.25</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="10">
+    </row>
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11">
         <v>0</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>170</v>
+      <c r="J28" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I$1:I$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2624,18 +3235,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8CD51391-53BE-4CDF-A642-865249A14118}</x14:id>
+          <x14:id>{ca240c62-8065-48ea-b4a9-5c3ea145dc9d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8CD51391-53BE-4CDF-A642-865249A14118}">
+          <x14:cfRule type="dataBar" id="{ca240c62-8065-48ea-b4a9-5c3ea145dc9d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2645,7 +3257,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>I$1:I$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2654,210 +3266,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="34.75" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="34.75" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="3" t="s">
+    <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="B1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" ht="50" spans="1:6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="100" spans="1:7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="38" spans="1:7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="38" spans="1:6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="62" spans="1:7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="87" spans="1:6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="38" spans="1:7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="50" spans="1:7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="50" spans="1:6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F$1:F$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2866,18 +3478,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2622E138-F94F-47BC-A289-FD63E572E160}</x14:id>
+          <x14:id>{0dd13a79-a29e-4332-8af3-7cde61d77fb7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2622E138-F94F-47BC-A289-FD63E572E160}">
+          <x14:cfRule type="dataBar" id="{0dd13a79-a29e-4332-8af3-7cde61d77fb7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2887,7 +3500,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F$1:F$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2896,76 +3509,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2973,75 +3587,76 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" ht="38" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
         <v>153</v>
       </c>
-      <c r="D8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" ht="112" spans="1:2">
       <c r="A9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -3049,52 +3664,52 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D2F74B-FA28-47B5-9CAE-B0A71816030B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1029,16 +1035,7 @@
 7、饮食健康清淡  10分</t>
   </si>
   <si>
-    <t>6.28-7.04</t>
-  </si>
-  <si>
     <t>前端：学习JS</t>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）
-2.驾校视频看完并刷完题目（20分）
-3.11点前半睡觉（20分）
-4.学习基础理财知识（10分）</t>
   </si>
   <si>
     <t>序号</t>
@@ -1252,18 +1249,40 @@
   <si>
     <t>多看技术文章，了解前沿技术</t>
   </si>
+  <si>
+    <t>前端：学习JS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校视频看完并刷完题目（20分）5分
+3.11点前半睡觉（20分）0分
+4.学习基础理财知识（10分）0分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.28-7.04</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.05-7.11</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：学习JS
+看科三知识</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,151 +1322,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1490,8 +1365,14 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1510,194 +1391,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1705,258 +1400,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1983,11 +1436,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1998,68 +1448,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2317,916 +1730,940 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="9"/>
-    <col min="2" max="8" width="16.125" style="10"/>
-    <col min="9" max="9" width="16.125" style="11"/>
-    <col min="10" max="16384" width="16.125" style="10"/>
+    <col min="1" max="1" width="16.125" style="8"/>
+    <col min="2" max="8" width="16.125" style="9"/>
+    <col min="9" max="9" width="16.125" style="10"/>
+    <col min="10" max="16384" width="16.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0.23</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="10">
         <v>0.18</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10">
         <v>0.1</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="10">
         <v>0.1</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>0.1</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>0.05</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>0.25</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="10">
         <v>0.15</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="10">
         <v>0.05</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="10">
         <v>0.05</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="10">
         <v>0.05</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.25</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>0.43</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>0.38</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>0.18</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="F19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="10">
         <v>0.15</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>0.13</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="G21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="10">
         <v>0.05</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10">
         <v>0.11</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="F23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="10">
         <v>0.11</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>0.53</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="G25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="10">
         <v>0.25</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="17">
+      <c r="G26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="15">
         <v>0.35</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>0.25</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="10">
         <v>0</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>111</v>
+      <c r="E29" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I$1:I$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3235,19 +2672,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ca240c62-8065-48ea-b4a9-5c3ea145dc9d}</x14:id>
+          <x14:id>{CA240C62-8065-48EA-B4A9-5C3EA145DC9D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ca240c62-8065-48ea-b4a9-5c3ea145dc9d}">
+          <x14:cfRule type="dataBar" id="{CA240C62-8065-48EA-B4A9-5C3EA145DC9D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3257,7 +2693,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I$1:I$1048576</xm:sqref>
+          <xm:sqref>I1:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3266,210 +2702,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="34.75" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="34.75" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" ht="50" spans="1:6">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="5">
+      <c r="D3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" ht="100" spans="1:7">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="38" spans="1:7">
-      <c r="A4" s="5">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" ht="38" spans="1:6">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="62" spans="1:7">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" ht="87" spans="1:6">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="5">
+      <c r="D8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" ht="38" spans="1:7">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" ht="50" spans="1:7">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="50" spans="1:6">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F$1:F$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3478,19 +2914,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0dd13a79-a29e-4332-8af3-7cde61d77fb7}</x14:id>
+          <x14:id>{0DD13A79-A29E-4332-8AF3-7CDE61D77FB7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0dd13a79-a29e-4332-8af3-7cde61d77fb7}">
+          <x14:cfRule type="dataBar" id="{0DD13A79-A29E-4332-8AF3-7CDE61D77FB7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3500,7 +2935,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F$1:F$1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3509,77 +2944,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3587,76 +3021,75 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" ht="38" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>158</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" ht="112" spans="1:2">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>161</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -3664,52 +3097,52 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="C2" t="s">
         <v>164</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" t="s">
         <v>165</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D2F74B-FA28-47B5-9CAE-B0A71816030B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9A363D-2843-48BF-B9F7-705FA8E8E1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="175">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2656,6 +2656,9 @@
       </c>
       <c r="C30" s="9" t="s">
         <v>174</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9A363D-2843-48BF-B9F7-705FA8E8E1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DECB20-DD61-4D3E-814D-1C9DEB17BC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="180">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1275,6 +1275,30 @@
   <si>
     <t>前端：学习JS
 看科三知识</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习科目三</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目四练习题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校视频看完并刷完题目（20分）15分
+3.11点前半睡觉（20分）0分
+4.学习基础理财知识（10分）0分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.12-7.16</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：学习JS
+科目四模拟测试</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1736,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2659,6 +2683,35 @@
       </c>
       <c r="D30" s="9" t="s">
         <v>169</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DECB20-DD61-4D3E-814D-1C9DEB17BC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D409B180-90CB-4669-B54F-F891C6892FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="180">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1763,7 +1763,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2709,6 +2709,9 @@
       </c>
       <c r="B31" s="9" t="s">
         <v>179</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>171</v>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D409B180-90CB-4669-B54F-F891C6892FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C506A951-94FA-47CD-96A7-272377F8514A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -196,6 +196,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -205,6 +206,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：HTTP缓存机制及原理</t>
@@ -215,6 +217,7 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器）</t>
@@ -227,6 +230,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端 </t>
@@ -236,6 +240,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：浏览器缓存</t>
@@ -246,6 +251,7 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（浏览器）
@@ -256,6 +262,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>练车</t>
@@ -267,6 +274,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -278,6 +286,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端 </t>
@@ -287,6 +296,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：url输入到页面呈现</t>
@@ -297,6 +307,7 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（浏览器）
@@ -307,6 +318,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>练车</t>
@@ -319,6 +331,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端 ：</t>
@@ -328,6 +341,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>url输入到页面呈现</t>
@@ -338,6 +352,7 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器）</t>
@@ -347,6 +362,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -360,6 +376,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端 </t>
@@ -369,6 +386,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：浏览器渲染原理</t>
@@ -379,6 +397,7 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器）</t>
@@ -388,6 +407,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -401,6 +421,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端 ：</t>
@@ -410,6 +431,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浏览器渲染原理</t>
@@ -420,6 +442,7 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器</t>
@@ -429,6 +452,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）
@@ -454,6 +478,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端 ：</t>
@@ -463,6 +488,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浏览器渲染原理</t>
@@ -473,6 +499,7 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（浏览器）
@@ -484,6 +511,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>练车</t>
@@ -496,6 +524,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -505,6 +534,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如何封装组件
@@ -518,6 +548,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -527,6 +558,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>vue学习</t>
@@ -539,6 +571,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -548,6 +581,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习
@@ -565,6 +599,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -574,6 +609,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>学习vue</t>
@@ -598,6 +634,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -607,6 +644,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">vue学习
@@ -618,6 +656,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode:</t>
@@ -627,6 +666,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>删除排序数组中的重复项 II（双指针）
@@ -640,6 +680,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -649,6 +690,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">vue学习
@@ -660,6 +702,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode:</t>
@@ -669,6 +712,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>删除排序数组中的重复项（双指针）
@@ -683,6 +727,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -692,6 +737,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：vue学习
@@ -703,6 +749,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode：</t>
@@ -711,6 +758,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>搜索旋转排序数组</t>
@@ -738,6 +786,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -747,6 +796,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：vue学习
@@ -758,6 +808,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode:</t>
@@ -767,6 +818,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>两数相加
@@ -802,6 +854,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -811,6 +864,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习</t>
@@ -837,6 +891,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -846,6 +901,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习
@@ -858,6 +914,7 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -867,6 +924,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习</t>
@@ -1299,6 +1357,16 @@
   <si>
     <t>前端：学习JS
 科目四模拟测试</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：学习JS
+科目三路线记忆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：学习JS（JS继承，JS闭包，this指向）
+科目三路线记忆</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1318,6 +1386,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1325,6 +1394,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1333,6 +1403,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1341,6 +1412,7 @@
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1348,6 +1420,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1356,12 +1429,14 @@
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1369,6 +1444,7 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1376,22 +1452,26 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1763,7 +1843,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2711,7 +2791,10 @@
         <v>179</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>171</v>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C506A951-94FA-47CD-96A7-272377F8514A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3ED259-A3F6-4D94-96A6-3A1D3B3937E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="186">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1351,10 +1351,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>7.12-7.16</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>前端：学习JS
 科目四模拟测试</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -1367,6 +1363,34 @@
   <si>
     <t>前端：学习JS（JS继承，JS闭包，this指向）
 科目三路线记忆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校视频看完并刷完题目（20分）20分
+3.11点前半睡觉（20分）5分
+4.学习基础理财知识（10分）0分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校刷题目（20分）5分
+3.11点前半睡觉（20分）0分
+4.学习基础理财知识（10分）0分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.12-7.18</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.19-7.25</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：学习JS
+科目三路线记忆
+科目四题目练习</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1840,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2785,19 +2809,45 @@
     </row>
     <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>171</v>
+    </row>
+    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3ED259-A3F6-4D94-96A6-3A1D3B3937E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -196,7 +190,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -206,7 +199,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：HTTP缓存机制及原理</t>
@@ -217,7 +209,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器）</t>
@@ -230,7 +221,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端 </t>
@@ -240,7 +230,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：浏览器缓存</t>
@@ -251,7 +240,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（浏览器）
@@ -262,7 +250,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>练车</t>
@@ -274,7 +261,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -286,7 +272,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端 </t>
@@ -296,7 +281,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：url输入到页面呈现</t>
@@ -307,7 +291,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（浏览器）
@@ -318,7 +301,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>练车</t>
@@ -331,7 +313,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端 ：</t>
@@ -341,7 +322,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>url输入到页面呈现</t>
@@ -352,7 +332,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器）</t>
@@ -362,7 +341,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -376,7 +354,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端 </t>
@@ -386,7 +363,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：浏览器渲染原理</t>
@@ -397,7 +373,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器）</t>
@@ -407,7 +382,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -421,7 +395,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端 ：</t>
@@ -431,7 +404,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浏览器渲染原理</t>
@@ -442,7 +414,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器</t>
@@ -452,7 +423,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）
@@ -478,7 +448,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端 ：</t>
@@ -488,7 +457,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浏览器渲染原理</t>
@@ -499,7 +467,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（浏览器）
@@ -511,7 +478,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>练车</t>
@@ -524,7 +490,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -534,7 +499,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如何封装组件
@@ -548,7 +512,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -558,7 +521,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>vue学习</t>
@@ -571,7 +533,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -581,7 +542,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习
@@ -599,7 +559,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -609,7 +568,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>学习vue</t>
@@ -634,7 +592,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -644,7 +601,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">vue学习
@@ -656,7 +612,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode:</t>
@@ -666,7 +621,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>删除排序数组中的重复项 II（双指针）
@@ -680,7 +634,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -690,7 +643,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">vue学习
@@ -702,7 +654,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode:</t>
@@ -712,7 +663,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>删除排序数组中的重复项（双指针）
@@ -727,7 +677,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -737,7 +686,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：vue学习
@@ -749,7 +697,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode：</t>
@@ -758,7 +705,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>搜索旋转排序数组</t>
@@ -786,7 +732,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -796,7 +741,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：vue学习
@@ -808,7 +752,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode:</t>
@@ -818,7 +761,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>两数相加
@@ -854,7 +796,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -864,7 +805,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习</t>
@@ -891,7 +831,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -901,7 +840,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习
@@ -914,7 +852,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -924,7 +861,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习</t>
@@ -1093,7 +1029,74 @@
 7、饮食健康清淡  10分</t>
   </si>
   <si>
+    <t>6.28-7.04</t>
+  </si>
+  <si>
     <t>前端：学习JS</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校视频看完并刷完题目（20分）5分
+3.11点前半睡觉（20分）0分
+4.学习基础理财知识（10分）0分</t>
+  </si>
+  <si>
+    <t>7.05-7.11</t>
+  </si>
+  <si>
+    <t>前端：学习JS
+看科三知识</t>
+  </si>
+  <si>
+    <t>练习科目三</t>
+  </si>
+  <si>
+    <t>科目四练习题</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校视频看完并刷完题目（20分）15分
+3.11点前半睡觉（20分）0分
+4.学习基础理财知识（10分）0分</t>
+  </si>
+  <si>
+    <t>7.12-7.18</t>
+  </si>
+  <si>
+    <t>前端：学习JS
+科目四模拟测试</t>
+  </si>
+  <si>
+    <t>前端：学习JS
+科目三路线记忆</t>
+  </si>
+  <si>
+    <t>前端：学习JS（JS继承，JS闭包，this指向）
+科目三路线记忆</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校视频看完并刷完题目（20分）20分
+3.11点前半睡觉（20分）5分
+4.学习基础理财知识（10分）0分</t>
+  </si>
+  <si>
+    <t>7.19-7.25</t>
+  </si>
+  <si>
+    <t>前端：学习JS
+科目三路线记忆
+科目四题目练习</t>
+  </si>
+  <si>
+    <t>前端：学习JS
+练习科目三</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校刷题目（20分）5分
+3.11点前半睡觉（20分）0分
+4.学习基础理财知识（10分）0分</t>
   </si>
   <si>
     <t>序号</t>
@@ -1307,98 +1310,18 @@
   <si>
     <t>多看技术文章，了解前沿技术</t>
   </si>
-  <si>
-    <t>前端：学习JS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.驾校视频看完并刷完题目（20分）5分
-3.11点前半睡觉（20分）0分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.28-7.04</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.05-7.11</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS
-看科三知识</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>练习科目三</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目四练习题</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.驾校视频看完并刷完题目（20分）15分
-3.11点前半睡觉（20分）0分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS
-科目四模拟测试</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS
-科目三路线记忆</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS（JS继承，JS闭包，this指向）
-科目三路线记忆</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.驾校视频看完并刷完题目（20分）20分
-3.11点前半睡觉（20分）5分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.驾校刷题目（20分）5分
-3.11点前半睡觉（20分）0分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.12-7.18</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.19-7.25</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS
-科目三路线记忆
-科目四题目练习</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1410,7 +1333,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1418,7 +1340,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1427,7 +1348,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1436,16 +1356,165 @@
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1453,14 +1522,12 @@
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1468,7 +1535,6 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1476,31 +1542,21 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,8 +1575,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1528,10 +1770,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1541,6 +2022,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1564,8 +2048,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1576,31 +2063,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1858,1004 +2382,1006 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="8"/>
-    <col min="2" max="8" width="16.125" style="9"/>
-    <col min="9" max="9" width="16.125" style="10"/>
-    <col min="10" max="16384" width="16.125" style="9"/>
+    <col min="1" max="1" width="16.125" style="9"/>
+    <col min="2" max="8" width="16.125" style="10"/>
+    <col min="9" max="9" width="16.125" style="11"/>
+    <col min="10" max="16384" width="16.125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>0.23</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
         <v>0.18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11">
         <v>0.1</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11">
         <v>0.1</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>0.1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <v>0.05</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>0.25</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
         <v>0.15</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
         <v>0.05</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
         <v>0.05</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="11">
         <v>0.05</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" customHeight="1" spans="1:10">
+      <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="11">
         <v>0.25</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="11">
         <v>0.43</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="11">
         <v>0.38</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.18</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
         <v>0.15</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="11">
         <v>0.13</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
         <v>0.05</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="H22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11">
         <v>0.11</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11">
         <v>0.11</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <v>0.53</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="G25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="11">
         <v>0.25</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="17">
         <v>0.35</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <v>0.25</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="C28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11">
         <v>0</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="9" t="s">
+    <row r="29" customHeight="1" spans="1:10">
+      <c r="A29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I29" s="10">
+      <c r="B29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="11">
         <v>0.25</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="10">
+      <c r="J29" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="11">
         <v>0.35</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" s="10">
+      <c r="J30" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:10">
+      <c r="A31" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="11">
         <v>0.45</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>182</v>
+      <c r="J31" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I$1:I$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2864,18 +3390,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CA240C62-8065-48EA-B4A9-5C3EA145DC9D}</x14:id>
+          <x14:id>{77930872-1cbe-4e56-a781-4dc95c2fa666}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CA240C62-8065-48EA-B4A9-5C3EA145DC9D}">
+          <x14:cfRule type="dataBar" id="{77930872-1cbe-4e56-a781-4dc95c2fa666}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2885,7 +3412,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>I$1:I$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2894,210 +3421,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="34.75" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="34.75" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" ht="50" spans="1:6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="100" spans="1:7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="38" spans="1:7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="38" spans="1:6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="62" spans="1:7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="87" spans="1:6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="38" spans="1:7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="50" spans="1:7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="50" spans="1:6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F$1:F$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3106,18 +3633,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0DD13A79-A29E-4332-8AF3-7CDE61D77FB7}</x14:id>
+          <x14:id>{ef58ab81-71b0-4380-a39a-f7b068383291}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0DD13A79-A29E-4332-8AF3-7CDE61D77FB7}">
+          <x14:cfRule type="dataBar" id="{ef58ab81-71b0-4380-a39a-f7b068383291}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3127,7 +3655,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F$1:F$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3136,76 +3664,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3213,75 +3742,76 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" ht="38" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" ht="112" spans="1:2">
       <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -3289,52 +3819,52 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>162</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3ED259-A3F6-4D94-96A6-3A1D3B3937E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A35B28-DC01-4E8D-89F0-08CF64AA6A19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="188">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1391,6 +1391,17 @@
     <t>前端：学习JS
 科目三路线记忆
 科目四题目练习</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前端：学习JS
+科目三路线记忆
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前端：学习JS
+</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1867,7 +1878,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2844,6 +2855,18 @@
         <v>184</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>185</v>
       </c>
       <c r="J32" s="9" t="s">

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A35B28-DC01-4E8D-89F0-08CF64AA6A19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D24162-193A-4157-BEF5-52F38E486FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="192">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1373,13 +1373,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.驾校刷题目（20分）5分
-3.11点前半睡觉（20分）0分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>7.12-7.18</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1402,6 +1395,34 @@
   <si>
     <t xml:space="preserve">前端：学习JS
 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>考科目三和科目四</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校刷题目（20分）20分
+3.11点前半睡觉（20分）10分
+4.学习基础理财知识（10分）0分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.26-8.01</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：学习Vue
+修改简历
+leetcode:</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.学习算法（20分）20分
+3.11点前半睡觉（20分）10分
+4.学习基础理财知识（10分）0分</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1875,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2820,7 +2841,7 @@
     </row>
     <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>178</v>
@@ -2852,25 +2873,45 @@
     </row>
     <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>185</v>
+      <c r="H32" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.5</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D24162-193A-4157-BEF5-52F38E486FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -196,7 +190,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -206,7 +199,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：HTTP缓存机制及原理</t>
@@ -217,7 +209,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器）</t>
@@ -230,7 +221,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端 </t>
@@ -240,7 +230,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：浏览器缓存</t>
@@ -251,7 +240,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（浏览器）
@@ -262,7 +250,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>练车</t>
@@ -274,7 +261,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -286,7 +272,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端 </t>
@@ -296,7 +281,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：url输入到页面呈现</t>
@@ -307,7 +291,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（浏览器）
@@ -318,7 +301,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>练车</t>
@@ -331,7 +313,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端 ：</t>
@@ -341,7 +322,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>url输入到页面呈现</t>
@@ -352,7 +332,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器）</t>
@@ -362,7 +341,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -376,7 +354,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">前端 </t>
@@ -386,7 +363,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：浏览器渲染原理</t>
@@ -397,7 +373,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器）</t>
@@ -407,7 +382,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -421,7 +395,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端 ：</t>
@@ -431,7 +404,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浏览器渲染原理</t>
@@ -442,7 +414,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（浏览器</t>
@@ -452,7 +423,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）
@@ -478,7 +448,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端 ：</t>
@@ -488,7 +457,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浏览器渲染原理</t>
@@ -499,7 +467,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（浏览器）
@@ -511,7 +478,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>练车</t>
@@ -524,7 +490,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -534,7 +499,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如何封装组件
@@ -548,7 +512,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -558,7 +521,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>vue学习</t>
@@ -571,7 +533,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -581,7 +542,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习
@@ -599,7 +559,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -609,7 +568,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>学习vue</t>
@@ -634,7 +592,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -644,7 +601,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">vue学习
@@ -656,7 +612,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode:</t>
@@ -666,7 +621,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>删除排序数组中的重复项 II（双指针）
@@ -680,7 +634,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端：</t>
@@ -690,7 +643,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">vue学习
@@ -702,7 +654,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode:</t>
@@ -712,7 +663,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>删除排序数组中的重复项（双指针）
@@ -727,7 +677,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -737,7 +686,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：vue学习
@@ -749,7 +697,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode：</t>
@@ -758,7 +705,6 @@
       <rPr>
         <sz val="9"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>搜索旋转排序数组</t>
@@ -786,7 +732,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -796,7 +741,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：vue学习
@@ -808,7 +752,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>leetcode:</t>
@@ -818,7 +761,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>两数相加
@@ -854,7 +796,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -864,7 +805,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习</t>
@@ -891,7 +831,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -901,7 +840,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习
@@ -914,7 +852,6 @@
         <sz val="9"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前端</t>
@@ -924,7 +861,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：vue学习</t>
@@ -1093,7 +1029,98 @@
 7、饮食健康清淡  10分</t>
   </si>
   <si>
+    <t>6.28-7.04</t>
+  </si>
+  <si>
     <t>前端：学习JS</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校视频看完并刷完题目（20分）5分
+3.11点前半睡觉（20分）0分
+4.学习基础理财知识（10分）0分</t>
+  </si>
+  <si>
+    <t>7.05-7.11</t>
+  </si>
+  <si>
+    <t>前端：学习JS
+看科三知识</t>
+  </si>
+  <si>
+    <t>练习科目三</t>
+  </si>
+  <si>
+    <t>科目四练习题</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校视频看完并刷完题目（20分）15分
+3.11点前半睡觉（20分）0分
+4.学习基础理财知识（10分）0分</t>
+  </si>
+  <si>
+    <t>7.12-7.18</t>
+  </si>
+  <si>
+    <t>前端：学习JS
+科目四模拟测试</t>
+  </si>
+  <si>
+    <t>前端：学习JS
+科目三路线记忆</t>
+  </si>
+  <si>
+    <t>前端：学习JS（JS继承，JS闭包，this指向）
+科目三路线记忆</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校视频看完并刷完题目（20分）20分
+3.11点前半睡觉（20分）5分
+4.学习基础理财知识（10分）0分</t>
+  </si>
+  <si>
+    <t>7.19-7.25</t>
+  </si>
+  <si>
+    <t>前端：学习JS
+科目三路线记忆
+科目四题目练习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前端：学习JS
+科目三路线记忆
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前端：学习JS
+</t>
+  </si>
+  <si>
+    <t>考科目三和科目四</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.驾校刷题目（20分）20分
+3.11点前半睡觉（20分）10分
+4.学习基础理财知识（10分）0分</t>
+  </si>
+  <si>
+    <t>7.26-8.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前端：学习Vue
+</t>
+  </si>
+  <si>
+    <t>前端：学习Vue</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+2.学习算法（20分）20分
+3.11点前半睡觉（20分）10分
+4.学习基础理财知识（10分）0分</t>
   </si>
   <si>
     <t>序号</t>
@@ -1307,130 +1334,18 @@
   <si>
     <t>多看技术文章，了解前沿技术</t>
   </si>
-  <si>
-    <t>前端：学习JS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.驾校视频看完并刷完题目（20分）5分
-3.11点前半睡觉（20分）0分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.28-7.04</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.05-7.11</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS
-看科三知识</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>练习科目三</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目四练习题</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.驾校视频看完并刷完题目（20分）15分
-3.11点前半睡觉（20分）0分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS
-科目四模拟测试</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS
-科目三路线记忆</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS（JS继承，JS闭包，this指向）
-科目三路线记忆</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.驾校视频看完并刷完题目（20分）20分
-3.11点前半睡觉（20分）5分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.12-7.18</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.19-7.25</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS
-科目三路线记忆
-科目四题目练习</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">前端：学习JS
-科目三路线记忆
-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">前端：学习JS
-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>考科目三和科目四</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.驾校刷题目（20分）20分
-3.11点前半睡觉（20分）10分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.26-8.01</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习Vue
-修改简历
-leetcode:</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
-2.学习算法（20分）20分
-3.11点前半睡觉（20分）10分
-4.学习基础理财知识（10分）0分</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,7 +1357,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1450,7 +1364,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1459,7 +1372,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1468,7 +1380,28 @@
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1476,8 +1409,136 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1485,14 +1546,12 @@
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1500,7 +1559,6 @@
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1508,31 +1566,21 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1551,8 +1599,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1560,10 +1794,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1573,6 +2046,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1596,8 +2072,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1608,31 +2087,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1890,1036 +2406,1038 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="8"/>
-    <col min="2" max="8" width="16.125" style="9"/>
-    <col min="9" max="9" width="16.125" style="10"/>
-    <col min="10" max="16384" width="16.125" style="9"/>
+    <col min="1" max="1" width="16.125" style="9"/>
+    <col min="2" max="8" width="16.125" style="10"/>
+    <col min="9" max="9" width="16.125" style="11"/>
+    <col min="10" max="16384" width="16.125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>0.23</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
         <v>0.18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11">
         <v>0.1</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11">
         <v>0.1</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>0.1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <v>0.05</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>0.25</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
         <v>0.15</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
         <v>0.05</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
         <v>0.05</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="11">
         <v>0.05</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" customHeight="1" spans="1:10">
+      <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="11">
         <v>0.25</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="11">
         <v>0.43</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="11">
         <v>0.38</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.18</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
         <v>0.15</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="11">
         <v>0.13</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
         <v>0.05</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="H22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11">
         <v>0.11</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11">
         <v>0.11</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <v>0.53</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="G25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="11">
         <v>0.25</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="17">
         <v>0.35</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <v>0.25</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="C28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11">
         <v>0</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="9" t="s">
+    <row r="29" customHeight="1" spans="1:10">
+      <c r="A29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I29" s="10">
+      <c r="B29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="11">
         <v>0.25</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="10">
+      <c r="J29" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="11">
         <v>0.35</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" s="10">
+      <c r="J30" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:10">
+      <c r="A31" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="11">
         <v>0.45</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="J31" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="11">
         <v>0.5</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>191</v>
+      <c r="J32" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:10">
+      <c r="A33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I$1:I$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2928,18 +3446,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CA240C62-8065-48EA-B4A9-5C3EA145DC9D}</x14:id>
+          <x14:id>{d3824a0a-4580-4644-973e-53ce035e2ba5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CA240C62-8065-48EA-B4A9-5C3EA145DC9D}">
+          <x14:cfRule type="dataBar" id="{d3824a0a-4580-4644-973e-53ce035e2ba5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2949,7 +3468,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>I$1:I$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2958,210 +3477,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="34.75" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="34.75" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" ht="50" spans="1:6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="100" spans="1:7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="38" spans="1:7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="38" spans="1:6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="62" spans="1:7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="87" spans="1:6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="38" spans="1:7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="50" spans="1:7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="50" spans="1:6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F$1:F$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3170,18 +3689,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0DD13A79-A29E-4332-8AF3-7CDE61D77FB7}</x14:id>
+          <x14:id>{7557416e-3fce-4976-9b5e-47958c882322}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0DD13A79-A29E-4332-8AF3-7CDE61D77FB7}">
+          <x14:cfRule type="dataBar" id="{7557416e-3fce-4976-9b5e-47958c882322}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3191,7 +3711,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F$1:F$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3200,76 +3720,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3277,75 +3798,76 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" ht="38" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" ht="112" spans="1:2">
       <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -3353,52 +3875,52 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>162</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492350F8-A4E3-4C53-B135-244D53D4D8D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="193">
   <si>
     <t>2020年周计划</t>
   </si>
@@ -1114,9 +1120,6 @@
 </t>
   </si>
   <si>
-    <t>前端：学习Vue</t>
-  </si>
-  <si>
     <t>1.学习前端（CSS和JS基础知识）（50分）20分
 2.学习算法（20分）20分
 3.11点前半睡觉（20分）10分
@@ -1334,18 +1337,23 @@
   <si>
     <t>多看技术文章，了解前沿技术</t>
   </si>
+  <si>
+    <t>前端：学习Vue</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：学习JS面向对象编程</t>
+  </si>
+  <si>
+    <t>前端：学习JS面向对象编程</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1385,160 +1393,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1579,8 +1436,14 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1599,194 +1462,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1794,258 +1471,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2072,11 +1507,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2087,68 +1519,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2406,1038 +1801,1045 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="9"/>
-    <col min="2" max="8" width="16.125" style="10"/>
-    <col min="9" max="9" width="16.125" style="11"/>
-    <col min="10" max="16384" width="16.125" style="10"/>
+    <col min="1" max="1" width="16.125" style="8"/>
+    <col min="2" max="8" width="16.125" style="9"/>
+    <col min="9" max="9" width="16.125" style="10"/>
+    <col min="10" max="16384" width="16.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0.23</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="10">
         <v>0.18</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10">
         <v>0.1</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="10">
         <v>0.1</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>0.1</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>0.05</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>0.25</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="10">
         <v>0.15</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="10">
         <v>0.05</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="10">
         <v>0.05</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="10">
         <v>0.05</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.25</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>0.43</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>0.38</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>0.18</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="F19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="10">
         <v>0.15</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>0.13</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="G21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="10">
         <v>0.05</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10">
         <v>0.11</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="F23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="10">
         <v>0.11</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>0.53</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="G25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="10">
         <v>0.25</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="17">
+      <c r="G26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="15">
         <v>0.35</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>0.25</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="10">
         <v>0</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="11">
+      <c r="G29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="10">
         <v>0.25</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:10">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <v>0.35</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:10">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>0.45</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:10">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="11">
+      <c r="H32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="10">
         <v>0.5</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:10">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I$1:I$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3446,19 +2848,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d3824a0a-4580-4644-973e-53ce035e2ba5}</x14:id>
+          <x14:id>{D3824A0A-4580-4644-973E-53CE035E2BA5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d3824a0a-4580-4644-973e-53ce035e2ba5}">
+          <x14:cfRule type="dataBar" id="{D3824A0A-4580-4644-973E-53CE035E2BA5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3468,7 +2869,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I$1:I$1048576</xm:sqref>
+          <xm:sqref>I1:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3477,210 +2878,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="34.75" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="34.75" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" ht="50" spans="1:6">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="5">
+      <c r="C3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" ht="100" spans="1:7">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" ht="38" spans="1:7">
-      <c r="A4" s="5">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" ht="38" spans="1:6">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="62" spans="1:7">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" ht="87" spans="1:6">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="5">
+      <c r="C8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" ht="38" spans="1:7">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="5">
+      <c r="C9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" ht="50" spans="1:7">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="5">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="50" spans="1:6">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F$1:F$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3689,19 +3090,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7557416e-3fce-4976-9b5e-47958c882322}</x14:id>
+          <x14:id>{7557416E-3FCE-4976-9B5E-47958C882322}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7557416e-3fce-4976-9b5e-47958c882322}">
+          <x14:cfRule type="dataBar" id="{7557416E-3FCE-4976-9B5E-47958C882322}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3711,7 +3111,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F$1:F$1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3720,77 +3120,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" t="s">
-        <v>170</v>
-      </c>
       <c r="D3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
         <v>171</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>172</v>
       </c>
-      <c r="D4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3798,76 +3197,75 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" ht="38" spans="1:4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="D7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
         <v>178</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>179</v>
       </c>
-      <c r="D8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" ht="112" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>181</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -3875,52 +3273,52 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>185</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>187</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>189</v>
-      </c>
-      <c r="C4" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\年终总结\2021年个人计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492350F8-A4E3-4C53-B135-244D53D4D8D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -23,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="193">
-  <si>
-    <t>2020年周计划</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
+  <si>
+    <t>2021年周计划</t>
   </si>
   <si>
     <t>周一</t>
@@ -1120,186 +1114,48 @@
 </t>
   </si>
   <si>
-    <t>1.学习前端（CSS和JS基础知识）（50分）20分
+    <t>前端：学习Vue</t>
+  </si>
+  <si>
+    <t>前端：学习JS面向对象编程</t>
+  </si>
+  <si>
+    <t>前端：面试准备</t>
+  </si>
+  <si>
+    <t>1.学习前端（CSS和JS基础知识）（50分）30分
 2.学习算法（20分）20分
-3.11点前半睡觉（20分）10分
+3.11点前半睡觉（20分）5分
 4.学习基础理财知识（10分）0分</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>小目标</t>
-  </si>
-  <si>
-    <t>实现计划要做的努力</t>
-  </si>
-  <si>
-    <t>重要程度（满分5分）</t>
-  </si>
-  <si>
-    <t>完成度</t>
-  </si>
-  <si>
-    <t>完成情况说明</t>
-  </si>
-  <si>
-    <t>身体健康</t>
-  </si>
-  <si>
-    <t>1.打羽毛球锻炼身体
-2.健身塑形</t>
-  </si>
-  <si>
-    <t>1.打羽毛球
-2.早睡，早起养成好习惯
-3.练习帕梅拉或者美丽芭蕾（每周2次）</t>
-  </si>
-  <si>
-    <t>事业更上一层楼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.存款10万+
-2.月薪达到20K
+    <t>8.02-9.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.学习前端（CSS和JS基础知识）（80分）65分
+2.学习算法（20分）5分
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-1.降低每月消费
-2.学会理财投资
-1.月薪要达到20K,需要跳槽
-2.学习前端知识，巩固技能
-3.开发自己的项目   √</t>
-  </si>
-  <si>
-    <t>孝敬父母</t>
-  </si>
-  <si>
-    <t>1.给爸爸攒钱换车
-2.为家里添置家具
-3.提高家人生活质量</t>
-  </si>
-  <si>
-    <t>1.攒钱</t>
-  </si>
-  <si>
-    <t>最少阅读24本书籍</t>
-  </si>
-  <si>
-    <t>1.每天晚上睡前阅读30分钟以上
-2.利用零碎时间进行阅读（比如：午休等）</t>
-  </si>
-  <si>
-    <t>做职业规划</t>
-  </si>
-  <si>
-    <t>1.多了解其他行业，为以后择业做打算
-2.了解自己适合什么，擅长什么
-3.尝试做一门副业来增加收入，并找到其他行业的可能性</t>
-  </si>
-  <si>
-    <t>软技能提升</t>
-  </si>
-  <si>
-    <t>1.学习英语
-2.公共软件的使用
-3.拿到驾照</t>
-  </si>
-  <si>
-    <t>1.尽可能多的记住生活中使用的英文
-2.创造英文使用环境（读英文技术文章，听英文电台）
-3.利用空余时间学习办公软件的使用（world,PPT,Excel）
-4.尽快练车考驾照</t>
-  </si>
-  <si>
-    <t>兴趣爱好</t>
-  </si>
-  <si>
-    <t>1.开始练习古典吉他曲，争取达到4级水平
-2.打羽毛球</t>
-  </si>
-  <si>
-    <t>1.每周至少2次吉他练习
-2.每周打一次羽毛球</t>
-  </si>
-  <si>
-    <t>交友</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.多和比自己优秀的人学习
-2.变得更加落落大方
-</t>
-  </si>
-  <si>
-    <t>1.多参加有意义的聚会和讨论，不要怕生
-2.认识更多有趣的人和事</t>
-  </si>
-  <si>
-    <t>经营生活</t>
-  </si>
-  <si>
-    <t>1.更了解他，让2人更加合拍，共同规划未来
-2.打扮自己，皮肤保养，身材锻炼</t>
-  </si>
-  <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>频率</t>
-  </si>
-  <si>
-    <t>总分</t>
-  </si>
-  <si>
-    <t>阅读书籍</t>
-  </si>
-  <si>
-    <t>每天半小时</t>
-  </si>
-  <si>
-    <t>20分</t>
-  </si>
-  <si>
-    <t>学习前端知识</t>
-  </si>
-  <si>
-    <t>每天</t>
-  </si>
-  <si>
-    <t>学习理财知识</t>
-  </si>
-  <si>
-    <t>每周3小时</t>
-  </si>
-  <si>
-    <t>10分</t>
-  </si>
-  <si>
-    <t>每周2次，2小时</t>
-  </si>
-  <si>
-    <t>11点半之后不玩手机，12点前睡觉</t>
-  </si>
-  <si>
-    <t>健身塑形</t>
-  </si>
-  <si>
-    <t>打羽毛球
-每周至少2次美丽芭蕾天鹅臂
-或者练习帕梅拉</t>
-  </si>
-  <si>
-    <t>饮食健康清淡</t>
-  </si>
-  <si>
-    <t>除了改善伙食，饮食尽量健康清淡</t>
-  </si>
-  <si>
-    <t>总结</t>
+    <t>9.06-10.10</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时  0分
+2、学习前端知识  5分
+3、每周学习理财知识3小时  0
+4、每周练习吉他2次，每次至少一小时  0
+5、每天11点之后不玩手机，12点前睡觉  0分
+6、健身塑形 0分
+7、饮食健康清淡  5分</t>
+  </si>
+  <si>
+    <t>10.11-10.17</t>
+  </si>
+  <si>
+    <t>前端：学习组件封装方法</t>
+  </si>
+  <si>
+    <t>前端：学习组件封装方法 &amp; React Hook &amp; TS</t>
   </si>
   <si>
     <t>1、每天阅读书籍半小时
@@ -1311,6 +1167,185 @@
 7.饮食健康清淡</t>
   </si>
   <si>
+    <t>10.18-10.24</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>小目标</t>
+  </si>
+  <si>
+    <t>实现计划要做的努力</t>
+  </si>
+  <si>
+    <t>重要程度（满分5分）</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>完成情况说明</t>
+  </si>
+  <si>
+    <t>身体健康</t>
+  </si>
+  <si>
+    <t>1.打羽毛球锻炼身体
+2.健身塑形</t>
+  </si>
+  <si>
+    <t>1.打羽毛球
+2.早睡，早起养成好习惯
+3.练习帕梅拉或者美丽芭蕾（每周2次）</t>
+  </si>
+  <si>
+    <t>事业更上一层楼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.存款10万+
+2.月薪达到20K
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.降低每月消费
+2.学会理财投资
+1.月薪要达到20K,需要跳槽
+2.学习前端知识，巩固技能
+3.开发自己的项目   √</t>
+  </si>
+  <si>
+    <t>孝敬父母</t>
+  </si>
+  <si>
+    <t>1.给爸爸攒钱换车
+2.为家里添置家具
+3.提高家人生活质量</t>
+  </si>
+  <si>
+    <t>1.攒钱</t>
+  </si>
+  <si>
+    <t>最少阅读24本书籍</t>
+  </si>
+  <si>
+    <t>1.每天晚上睡前阅读30分钟以上
+2.利用零碎时间进行阅读（比如：午休等）</t>
+  </si>
+  <si>
+    <t>做职业规划</t>
+  </si>
+  <si>
+    <t>1.多了解其他行业，为以后择业做打算
+2.了解自己适合什么，擅长什么
+3.尝试做一门副业来增加收入，并找到其他行业的可能性</t>
+  </si>
+  <si>
+    <t>软技能提升</t>
+  </si>
+  <si>
+    <t>1.学习英语
+2.公共软件的使用
+3.拿到驾照</t>
+  </si>
+  <si>
+    <t>1.尽可能多的记住生活中使用的英文
+2.创造英文使用环境（读英文技术文章，听英文电台）
+3.利用空余时间学习办公软件的使用（world,PPT,Excel）
+4.尽快练车考驾照</t>
+  </si>
+  <si>
+    <t>兴趣爱好</t>
+  </si>
+  <si>
+    <t>1.开始练习古典吉他曲，争取达到4级水平
+2.打羽毛球</t>
+  </si>
+  <si>
+    <t>1.每周至少2次吉他练习
+2.每周打一次羽毛球</t>
+  </si>
+  <si>
+    <t>交友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.多和比自己优秀的人学习
+2.变得更加落落大方
+</t>
+  </si>
+  <si>
+    <t>1.多参加有意义的聚会和讨论，不要怕生
+2.认识更多有趣的人和事</t>
+  </si>
+  <si>
+    <t>经营生活</t>
+  </si>
+  <si>
+    <t>1.更了解他，让2人更加合拍，共同规划未来
+2.打扮自己，皮肤保养，身材锻炼</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>频率</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>阅读书籍</t>
+  </si>
+  <si>
+    <t>每天半小时</t>
+  </si>
+  <si>
+    <t>20分</t>
+  </si>
+  <si>
+    <t>学习前端知识</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>学习理财知识</t>
+  </si>
+  <si>
+    <t>每周3小时</t>
+  </si>
+  <si>
+    <t>10分</t>
+  </si>
+  <si>
+    <t>每周2次，2小时</t>
+  </si>
+  <si>
+    <t>11点半之后不玩手机，12点前睡觉</t>
+  </si>
+  <si>
+    <t>健身塑形</t>
+  </si>
+  <si>
+    <t>打羽毛球
+每周至少2次美丽芭蕾天鹅臂
+或者练习帕梅拉</t>
+  </si>
+  <si>
+    <t>饮食健康清淡</t>
+  </si>
+  <si>
+    <t>除了改善伙食，饮食尽量健康清淡</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
     <t>详细描述</t>
   </si>
   <si>
@@ -1336,24 +1371,19 @@
   </si>
   <si>
     <t>多看技术文章，了解前沿技术</t>
-  </si>
-  <si>
-    <t>前端：学习Vue</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端：学习JS面向对象编程</t>
-  </si>
-  <si>
-    <t>前端：学习JS面向对象编程</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,10 +1422,160 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1436,14 +1616,8 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1462,8 +1636,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1471,19 +1825,261 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1507,8 +2103,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1519,31 +2118,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1801,1045 +2440,1175 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="8"/>
-    <col min="2" max="8" width="16.125" style="9"/>
-    <col min="9" max="9" width="16.125" style="10"/>
-    <col min="10" max="16384" width="16.125" style="9"/>
+    <col min="1" max="1" width="16.125" style="9"/>
+    <col min="2" max="8" width="16.125" style="10"/>
+    <col min="9" max="9" width="16.125" style="11"/>
+    <col min="10" max="16384" width="16.125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>0.23</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11">
         <v>0.18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11">
         <v>0.1</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11">
         <v>0.1</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>0.1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <v>0.05</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>0.25</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
         <v>0.15</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11">
         <v>0.05</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
         <v>0.05</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="11">
         <v>0.05</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" customHeight="1" spans="1:10">
+      <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="11">
         <v>0.25</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="11">
         <v>0.43</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="11">
         <v>0.38</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.18</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
         <v>0.15</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="11">
         <v>0.13</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11">
         <v>0.05</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="H22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11">
         <v>0.11</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="F23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11">
         <v>0.11</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <v>0.53</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="G25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="11">
         <v>0.25</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="18">
         <v>0.35</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <v>0.25</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="C28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11">
         <v>0</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+    <row r="29" customHeight="1" spans="1:10">
+      <c r="A29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="10">
+      <c r="G29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="11">
         <v>0.25</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="11">
         <v>0.35</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="31" customHeight="1" spans="1:10">
+      <c r="A31" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="11">
         <v>0.45</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="H32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="11">
         <v>0.5</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+    <row r="33" customHeight="1" spans="1:10">
+      <c r="A33" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>130</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.55</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:10">
+      <c r="A34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:10">
+      <c r="A35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:10">
+      <c r="A36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:8">
+      <c r="A37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I$1:I$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2848,18 +3617,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D3824A0A-4580-4644-973E-53CE035E2BA5}</x14:id>
+          <x14:id>{c3fbd0e2-aef9-4a43-94a6-2174cafcb215}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D3824A0A-4580-4644-973E-53CE035E2BA5}">
+          <x14:cfRule type="dataBar" id="{c3fbd0e2-aef9-4a43-94a6-2174cafcb215}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2869,7 +3639,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I1:I1048576</xm:sqref>
+          <xm:sqref>I$1:I$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2878,210 +3648,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="34.75" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="34.75" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" ht="51" spans="1:6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="135" spans="1:7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="51" spans="1:7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="51" spans="1:6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="68" spans="1:7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="101" spans="1:6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="51" spans="1:7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="51" spans="1:7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="51" spans="1:6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F$1:F$1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3090,18 +3860,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7557416E-3FCE-4976-9B5E-47958C882322}</x14:id>
+          <x14:id>{1e284cea-ff7a-4536-acae-d6b41b692adf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7557416E-3FCE-4976-9B5E-47958C882322}">
+          <x14:cfRule type="dataBar" id="{1e284cea-ff7a-4536-acae-d6b41b692adf}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3111,7 +3882,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F$1:F$1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3120,76 +3891,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3197,75 +3969,76 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" ht="51" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
@@ -3273,52 +4046,52 @@
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>183</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="28800" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1158,6 +1158,209 @@
     <t>前端：学习组件封装方法 &amp; React Hook &amp; TS</t>
   </si>
   <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 5
+3、每周学习理财知识3小时
+4、每周练习吉他2次，每次至少一小时
+5、每天11点之后不玩手机，12点前睡觉 0
+6.健身塑形 0
+7.饮食健康清淡 0</t>
+  </si>
+  <si>
+    <t>10.18-10.24</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 10分
+3、每周学习理财知识3小时 0
+4、每周练习吉他2次，每次至少一小时 0
+5、每天11点之后不玩手机，12点前睡觉 0
+6.健身塑形 3
+7.饮食健康清淡 5</t>
+  </si>
+  <si>
+    <t>10.25-10.31</t>
+  </si>
+  <si>
+    <t>前端：学习Git &amp; React Hook &amp; TS</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>小目标</t>
+  </si>
+  <si>
+    <t>实现计划要做的努力</t>
+  </si>
+  <si>
+    <t>重要程度（满分5分）</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>完成情况说明</t>
+  </si>
+  <si>
+    <t>身体健康</t>
+  </si>
+  <si>
+    <t>1.打羽毛球锻炼身体
+2.健身塑形</t>
+  </si>
+  <si>
+    <t>1.打羽毛球
+2.早睡，早起养成好习惯
+3.练习帕梅拉或者美丽芭蕾（每周2次）</t>
+  </si>
+  <si>
+    <t>事业更上一层楼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.存款10万+
+2.月薪达到20K
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.降低每月消费
+2.学会理财投资
+1.月薪要达到20K,需要跳槽
+2.学习前端知识，巩固技能
+3.开发自己的项目   √</t>
+  </si>
+  <si>
+    <t>孝敬父母</t>
+  </si>
+  <si>
+    <t>1.给爸爸攒钱换车
+2.为家里添置家具
+3.提高家人生活质量</t>
+  </si>
+  <si>
+    <t>1.攒钱</t>
+  </si>
+  <si>
+    <t>最少阅读24本书籍</t>
+  </si>
+  <si>
+    <t>1.每天晚上睡前阅读30分钟以上
+2.利用零碎时间进行阅读（比如：午休等）</t>
+  </si>
+  <si>
+    <t>做职业规划</t>
+  </si>
+  <si>
+    <t>1.多了解其他行业，为以后择业做打算
+2.了解自己适合什么，擅长什么
+3.尝试做一门副业来增加收入，并找到其他行业的可能性</t>
+  </si>
+  <si>
+    <t>软技能提升</t>
+  </si>
+  <si>
+    <t>1.学习英语
+2.公共软件的使用
+3.拿到驾照</t>
+  </si>
+  <si>
+    <t>1.尽可能多的记住生活中使用的英文
+2.创造英文使用环境（读英文技术文章，听英文电台）
+3.利用空余时间学习办公软件的使用（world,PPT,Excel）
+4.尽快练车考驾照</t>
+  </si>
+  <si>
+    <t>兴趣爱好</t>
+  </si>
+  <si>
+    <t>1.开始练习古典吉他曲，争取达到4级水平
+2.打羽毛球</t>
+  </si>
+  <si>
+    <t>1.每周至少2次吉他练习
+2.每周打一次羽毛球</t>
+  </si>
+  <si>
+    <t>交友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.多和比自己优秀的人学习
+2.变得更加落落大方
+</t>
+  </si>
+  <si>
+    <t>1.多参加有意义的聚会和讨论，不要怕生
+2.认识更多有趣的人和事</t>
+  </si>
+  <si>
+    <t>经营生活</t>
+  </si>
+  <si>
+    <t>1.更了解他，让2人更加合拍，共同规划未来
+2.打扮自己，皮肤保养，身材锻炼</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>频率</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>阅读书籍</t>
+  </si>
+  <si>
+    <t>每天半小时</t>
+  </si>
+  <si>
+    <t>20分</t>
+  </si>
+  <si>
+    <t>学习前端知识</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>学习理财知识</t>
+  </si>
+  <si>
+    <t>每周3小时</t>
+  </si>
+  <si>
+    <t>10分</t>
+  </si>
+  <si>
+    <t>每周2次，2小时</t>
+  </si>
+  <si>
+    <t>11点半之后不玩手机，12点前睡觉</t>
+  </si>
+  <si>
+    <t>健身塑形</t>
+  </si>
+  <si>
+    <t>打羽毛球
+每周至少2次美丽芭蕾天鹅臂
+或者练习帕梅拉</t>
+  </si>
+  <si>
+    <t>饮食健康清淡</t>
+  </si>
+  <si>
+    <t>除了改善伙食，饮食尽量健康清淡</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
     <t>1、每天阅读书籍半小时
 2、学习前端知识
 3、每周学习理财知识3小时
@@ -1165,185 +1368,6 @@
 5、每天11点之后不玩手机，12点前睡觉
 6.健身塑形
 7.饮食健康清淡</t>
-  </si>
-  <si>
-    <t>10.18-10.24</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>小目标</t>
-  </si>
-  <si>
-    <t>实现计划要做的努力</t>
-  </si>
-  <si>
-    <t>重要程度（满分5分）</t>
-  </si>
-  <si>
-    <t>完成度</t>
-  </si>
-  <si>
-    <t>完成情况说明</t>
-  </si>
-  <si>
-    <t>身体健康</t>
-  </si>
-  <si>
-    <t>1.打羽毛球锻炼身体
-2.健身塑形</t>
-  </si>
-  <si>
-    <t>1.打羽毛球
-2.早睡，早起养成好习惯
-3.练习帕梅拉或者美丽芭蕾（每周2次）</t>
-  </si>
-  <si>
-    <t>事业更上一层楼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.存款10万+
-2.月薪达到20K
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.降低每月消费
-2.学会理财投资
-1.月薪要达到20K,需要跳槽
-2.学习前端知识，巩固技能
-3.开发自己的项目   √</t>
-  </si>
-  <si>
-    <t>孝敬父母</t>
-  </si>
-  <si>
-    <t>1.给爸爸攒钱换车
-2.为家里添置家具
-3.提高家人生活质量</t>
-  </si>
-  <si>
-    <t>1.攒钱</t>
-  </si>
-  <si>
-    <t>最少阅读24本书籍</t>
-  </si>
-  <si>
-    <t>1.每天晚上睡前阅读30分钟以上
-2.利用零碎时间进行阅读（比如：午休等）</t>
-  </si>
-  <si>
-    <t>做职业规划</t>
-  </si>
-  <si>
-    <t>1.多了解其他行业，为以后择业做打算
-2.了解自己适合什么，擅长什么
-3.尝试做一门副业来增加收入，并找到其他行业的可能性</t>
-  </si>
-  <si>
-    <t>软技能提升</t>
-  </si>
-  <si>
-    <t>1.学习英语
-2.公共软件的使用
-3.拿到驾照</t>
-  </si>
-  <si>
-    <t>1.尽可能多的记住生活中使用的英文
-2.创造英文使用环境（读英文技术文章，听英文电台）
-3.利用空余时间学习办公软件的使用（world,PPT,Excel）
-4.尽快练车考驾照</t>
-  </si>
-  <si>
-    <t>兴趣爱好</t>
-  </si>
-  <si>
-    <t>1.开始练习古典吉他曲，争取达到4级水平
-2.打羽毛球</t>
-  </si>
-  <si>
-    <t>1.每周至少2次吉他练习
-2.每周打一次羽毛球</t>
-  </si>
-  <si>
-    <t>交友</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.多和比自己优秀的人学习
-2.变得更加落落大方
-</t>
-  </si>
-  <si>
-    <t>1.多参加有意义的聚会和讨论，不要怕生
-2.认识更多有趣的人和事</t>
-  </si>
-  <si>
-    <t>经营生活</t>
-  </si>
-  <si>
-    <t>1.更了解他，让2人更加合拍，共同规划未来
-2.打扮自己，皮肤保养，身材锻炼</t>
-  </si>
-  <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>频率</t>
-  </si>
-  <si>
-    <t>总分</t>
-  </si>
-  <si>
-    <t>阅读书籍</t>
-  </si>
-  <si>
-    <t>每天半小时</t>
-  </si>
-  <si>
-    <t>20分</t>
-  </si>
-  <si>
-    <t>学习前端知识</t>
-  </si>
-  <si>
-    <t>每天</t>
-  </si>
-  <si>
-    <t>学习理财知识</t>
-  </si>
-  <si>
-    <t>每周3小时</t>
-  </si>
-  <si>
-    <t>10分</t>
-  </si>
-  <si>
-    <t>每周2次，2小时</t>
-  </si>
-  <si>
-    <t>11点半之后不玩手机，12点前睡觉</t>
-  </si>
-  <si>
-    <t>健身塑形</t>
-  </si>
-  <si>
-    <t>打羽毛球
-每周至少2次美丽芭蕾天鹅臂
-或者练习帕梅拉</t>
-  </si>
-  <si>
-    <t>饮食健康清淡</t>
-  </si>
-  <si>
-    <t>除了改善伙食，饮食尽量健康清淡</t>
-  </si>
-  <si>
-    <t>总结</t>
   </si>
   <si>
     <t>详细描述</t>
@@ -1380,8 +1404,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1429,7 +1453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1451,7 +1475,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,8 +1496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,11 +1512,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1511,6 +1542,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1520,30 +1574,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1558,22 +1589,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,7 +1641,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1638,7 +1662,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,19 +1740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,13 +1758,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,31 +1794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,31 +1812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,31 +1824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,7 +1842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,6 +1853,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1840,6 +1879,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1874,6 +1928,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1888,190 +1953,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2118,7 +2148,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2446,10 +2482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -2498,7 +2534,7 @@
       <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="14" t="s">
@@ -3254,7 +3290,7 @@
       <c r="H26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="20">
         <v>0.35</v>
       </c>
       <c r="J26" s="10" t="s">
@@ -3510,7 +3546,7 @@
       <c r="H34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="20">
         <v>0.7</v>
       </c>
       <c r="J34" s="10" t="s">
@@ -3542,7 +3578,7 @@
       <c r="H35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="20">
         <v>0.1</v>
       </c>
       <c r="J35" s="10" t="s">
@@ -3568,17 +3604,20 @@
       <c r="F36" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="18" t="s">
         <v>140</v>
+      </c>
+      <c r="I36" s="20">
+        <v>0.05</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:8">
+    <row r="37" customHeight="1" spans="1:10">
       <c r="A37" s="9" t="s">
         <v>142</v>
       </c>
@@ -3597,11 +3636,43 @@
       <c r="F37" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="18" t="s">
         <v>140</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +3688,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c3fbd0e2-aef9-4a43-94a6-2174cafcb215}</x14:id>
+          <x14:id>{cef80120-b14f-43df-8c02-a6d5d64bdf6a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3629,7 +3700,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c3fbd0e2-aef9-4a43-94a6-2174cafcb215}">
+          <x14:cfRule type="dataBar" id="{cef80120-b14f-43df-8c02-a6d5d64bdf6a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3670,25 +3741,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -3696,13 +3767,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -3714,13 +3785,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -3733,13 +3804,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -3752,10 +3823,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -3767,10 +3838,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -3783,13 +3854,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -3801,13 +3872,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -3820,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -3839,11 +3910,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -3860,7 +3931,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e284cea-ff7a-4536-acae-d6b41b692adf}</x14:id>
+          <x14:id>{a471d680-30bf-49ae-9245-558bcc421f70}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3872,7 +3943,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1e284cea-ff7a-4536-acae-d6b41b692adf}">
+          <x14:cfRule type="dataBar" id="{a471d680-30bf-49ae-9245-558bcc421f70}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3896,7 +3967,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -3907,16 +3978,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3924,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3938,13 +4009,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3952,13 +4023,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3969,10 +4040,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3980,10 +4051,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -3991,13 +4062,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
         <v>187</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4005,21 +4076,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4048,42 +4119,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1185,6 +1185,22 @@
     <t>前端：学习Git &amp; React Hook &amp; TS</t>
   </si>
   <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 10分
+3、每周学习理财知识3小时 0
+4、每周练习吉他2次，每次至少一小时 0
+5、每天11点之后不玩手机，12点前睡觉 0
+6.健身塑形 3
+7.饮食健康清淡 0</t>
+  </si>
+  <si>
+    <t>11.01-11.07</t>
+  </si>
+  <si>
+    <t>前端：学习Git &amp; React Hook &amp; TS
+算法：两数之和</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1402,10 +1418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1459,8 +1475,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1475,30 +1498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1506,14 +1506,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1527,54 +1565,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,6 +1581,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1596,8 +1604,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1668,7 +1684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,13 +1702,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,7 +1738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,85 +1762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,13 +1792,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,7 +1822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,13 +1840,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,7 +1885,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1878,7 +1924,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1913,21 +1959,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1938,163 +1969,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2482,10 +2498,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3649,7 +3665,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:8">
+    <row r="38" customHeight="1" spans="1:10">
       <c r="A38" s="9" t="s">
         <v>144</v>
       </c>
@@ -3662,16 +3678,48 @@
       <c r="D38" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="18" t="s">
         <v>145</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:8">
+      <c r="A39" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3688,7 +3736,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cef80120-b14f-43df-8c02-a6d5d64bdf6a}</x14:id>
+          <x14:id>{af31364b-d07d-4257-911b-577ba6ceaebb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3700,7 +3748,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cef80120-b14f-43df-8c02-a6d5d64bdf6a}">
+          <x14:cfRule type="dataBar" id="{af31364b-d07d-4257-911b-577ba6ceaebb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3741,25 +3789,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -3767,13 +3815,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -3785,13 +3833,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -3804,13 +3852,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -3823,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -3838,10 +3886,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -3854,13 +3902,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -3872,13 +3920,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -3891,13 +3939,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -3910,11 +3958,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -3931,7 +3979,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a471d680-30bf-49ae-9245-558bcc421f70}</x14:id>
+          <x14:id>{febe390b-00f5-4a54-b193-6292cfbb5abe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3943,7 +3991,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a471d680-30bf-49ae-9245-558bcc421f70}">
+          <x14:cfRule type="dataBar" id="{febe390b-00f5-4a54-b193-6292cfbb5abe}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3978,16 +4026,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3995,13 +4043,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4009,13 +4057,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4023,13 +4071,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4040,10 +4088,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4051,10 +4099,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4062,13 +4110,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
         <v>190</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4076,21 +4124,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4119,42 +4167,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27900" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1201,6 +1201,33 @@
 算法：两数之和</t>
   </si>
   <si>
+    <t>前端：学习微前端-qiankun</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 15分
+3、每周学习理财知识3小时 0
+4、每周练习吉他2次，每次至少一小时 0
+5、每天11点之后不玩手机，12点前睡觉 0
+6.健身塑形 0
+7.饮食健康清淡 5</t>
+  </si>
+  <si>
+    <t>11.08-11.14</t>
+  </si>
+  <si>
+    <t>前端：JS基础</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 15分
+3、每周学习理财知识3小时 0
+4、每周练习吉他2次，每次至少一小时 0
+5、每天11点之后不玩手机，12点前睡觉 0
+6.健身塑形 0
+7.饮食健康清淡 0</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1419,9 +1446,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1482,39 +1509,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1528,23 +1524,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1565,9 +1592,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1581,31 +1623,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1613,7 +1640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1690,13 +1717,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,13 +1753,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,37 +1843,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,91 +1873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,7 +1912,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1901,6 +1928,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1924,190 +1992,149 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2498,10 +2525,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3697,7 +3724,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:8">
+    <row r="39" customHeight="1" spans="1:10">
       <c r="A39" s="9" t="s">
         <v>147</v>
       </c>
@@ -3714,13 +3741,48 @@
         <v>145</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:10">
+      <c r="A40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3736,7 +3798,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{af31364b-d07d-4257-911b-577ba6ceaebb}</x14:id>
+          <x14:id>{7179be83-654a-451c-925c-a10e7dddcb6c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3748,7 +3810,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{af31364b-d07d-4257-911b-577ba6ceaebb}">
+          <x14:cfRule type="dataBar" id="{7179be83-654a-451c-925c-a10e7dddcb6c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3789,25 +3851,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -3815,13 +3877,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -3833,13 +3895,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -3852,13 +3914,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -3871,10 +3933,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -3886,10 +3948,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -3902,13 +3964,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -3920,13 +3982,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -3939,13 +4001,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -3958,11 +4020,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -3979,7 +4041,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{febe390b-00f5-4a54-b193-6292cfbb5abe}</x14:id>
+          <x14:id>{d2bd5ad3-25fc-41b5-8b7e-291fe3302691}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3991,7 +4053,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{febe390b-00f5-4a54-b193-6292cfbb5abe}">
+          <x14:cfRule type="dataBar" id="{d2bd5ad3-25fc-41b5-8b7e-291fe3302691}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4026,16 +4088,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4043,13 +4105,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4057,13 +4119,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4071,13 +4133,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4088,10 +4150,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4099,10 +4161,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4110,13 +4172,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4124,21 +4186,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
         <v>195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4167,42 +4229,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13420"/>
+    <workbookView windowWidth="27940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1220,12 +1220,21 @@
   </si>
   <si>
     <t>1、每天阅读书籍半小时 0
-2、学习前端知识 15分
+2、学习前端知识 18分
 3、每周学习理财知识3小时 0
 4、每周练习吉他2次，每次至少一小时 0
 5、每天11点之后不玩手机，12点前睡觉 0
 6.健身塑形 0
-7.饮食健康清淡 0</t>
+7.饮食健康清淡 5</t>
+  </si>
+  <si>
+    <t>11.15-11.21</t>
+  </si>
+  <si>
+    <t>前端：js执行上下文</t>
+  </si>
+  <si>
+    <t>前端：js变量提升</t>
   </si>
   <si>
     <t>序号</t>
@@ -1445,9 +1454,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -1496,21 +1505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1524,9 +1519,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1534,6 +1529,28 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1554,9 +1571,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,8 +1587,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,14 +1620,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1607,40 +1640,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1717,7 +1726,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,7 +1786,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,91 +1876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,55 +1888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,32 +1911,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,16 +1933,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1969,6 +1963,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1988,159 +1991,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2525,10 +2534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3775,14 +3784,28 @@
       <c r="F40" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="18" t="s">
         <v>152</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.23</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3798,7 +3821,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7179be83-654a-451c-925c-a10e7dddcb6c}</x14:id>
+          <x14:id>{b2ba9b41-a8a2-4013-bb5d-6247b173abc7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3810,7 +3833,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7179be83-654a-451c-925c-a10e7dddcb6c}">
+          <x14:cfRule type="dataBar" id="{b2ba9b41-a8a2-4013-bb5d-6247b173abc7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3851,25 +3874,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -3877,13 +3900,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -3895,13 +3918,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -3914,13 +3937,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -3933,10 +3956,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -3948,10 +3971,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -3964,13 +3987,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -3982,13 +4005,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -4001,13 +4024,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -4020,11 +4043,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -4041,7 +4064,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d2bd5ad3-25fc-41b5-8b7e-291fe3302691}</x14:id>
+          <x14:id>{b277a679-ddc4-425b-9bba-868bf290c4cb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4053,7 +4076,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d2bd5ad3-25fc-41b5-8b7e-291fe3302691}">
+          <x14:cfRule type="dataBar" id="{b277a679-ddc4-425b-9bba-868bf290c4cb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4088,16 +4111,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4105,13 +4128,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4119,13 +4142,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4133,13 +4156,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4150,10 +4173,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4161,10 +4184,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4172,13 +4195,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
         <v>198</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4186,21 +4209,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4229,42 +4252,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1237,6 +1237,36 @@
     <t>前端：js变量提升</t>
   </si>
   <si>
+    <t>前端:this的指向</t>
+  </si>
+  <si>
+    <t>前端: apply和call</t>
+  </si>
+  <si>
+    <t>前端:new 操作符</t>
+  </si>
+  <si>
+    <t>前端:insatance of原理</t>
+  </si>
+  <si>
+    <t>前端:柯里化</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 18分
+3、每周学习理财知识3小时 0
+4、每周练习吉他2次，每次至少一小时 0
+5、每天11点之后不玩手机，12点前睡觉 0
+6.健身塑形 6
+7.饮食健康清淡 8</t>
+  </si>
+  <si>
+    <t>11.22-11.28</t>
+  </si>
+  <si>
+    <t>前端: 浮点数精度</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1454,8 +1484,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1511,11 +1541,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1534,22 +1570,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1564,7 +1586,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1589,21 +1619,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1612,7 +1627,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1620,21 +1649,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,6 +1664,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1726,7 +1756,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,13 +1792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,7 +1816,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,49 +1882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,37 +1906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,25 +1918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,8 +1941,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1932,6 +1962,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1947,11 +1986,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1970,8 +2015,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1990,166 +2035,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2534,10 +2564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3797,7 +3827,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:3">
+    <row r="41" customHeight="1" spans="1:10">
       <c r="A41" s="9" t="s">
         <v>154</v>
       </c>
@@ -3806,6 +3836,35 @@
       </c>
       <c r="C41" s="10" t="s">
         <v>156</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:2">
+      <c r="A42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3821,7 +3880,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b2ba9b41-a8a2-4013-bb5d-6247b173abc7}</x14:id>
+          <x14:id>{f0abc810-7cba-43ab-afa3-14e71ff9c603}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3833,7 +3892,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b2ba9b41-a8a2-4013-bb5d-6247b173abc7}">
+          <x14:cfRule type="dataBar" id="{f0abc810-7cba-43ab-afa3-14e71ff9c603}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3874,25 +3933,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -3900,13 +3959,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -3918,13 +3977,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -3937,13 +3996,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -3956,10 +4015,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -3971,10 +4030,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -3987,13 +4046,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -4005,13 +4064,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -4024,13 +4083,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -4043,11 +4102,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -4064,7 +4123,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b277a679-ddc4-425b-9bba-868bf290c4cb}</x14:id>
+          <x14:id>{bb5a9cec-37af-429f-9dac-3f85c8a94acc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4076,7 +4135,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b277a679-ddc4-425b-9bba-868bf290c4cb}">
+          <x14:cfRule type="dataBar" id="{bb5a9cec-37af-429f-9dac-3f85c8a94acc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4111,16 +4170,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4128,13 +4187,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4142,13 +4201,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4156,13 +4215,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4173,10 +4232,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4184,10 +4243,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4195,13 +4254,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4209,21 +4268,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4252,42 +4311,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1267,6 +1267,18 @@
     <t>前端: 浮点数精度</t>
   </si>
   <si>
+    <t>前端: V8引擎垃圾回收</t>
+  </si>
+  <si>
+    <t>前端:事件循环机制</t>
+  </si>
+  <si>
+    <t>前端:promise原理</t>
+  </si>
+  <si>
+    <t>前端:generator原理</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1484,10 +1496,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1535,14 +1547,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1555,14 +1567,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1570,8 +1574,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1587,9 +1623,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1601,25 +1659,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,55 +1689,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1756,7 +1768,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,31 +1822,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,97 +1924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,19 +1936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,6 +1960,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1962,26 +1998,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,67 +2047,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2089,97 +2101,97 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2567,7 +2579,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3859,12 +3871,24 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:2">
+    <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>164</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +3904,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f0abc810-7cba-43ab-afa3-14e71ff9c603}</x14:id>
+          <x14:id>{4cfe5b0e-e56e-42cd-b4cc-d86fc5bc6027}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3892,7 +3916,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f0abc810-7cba-43ab-afa3-14e71ff9c603}">
+          <x14:cfRule type="dataBar" id="{4cfe5b0e-e56e-42cd-b4cc-d86fc5bc6027}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3933,25 +3957,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -3959,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -3977,13 +4001,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -3996,13 +4020,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -4015,10 +4039,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -4030,10 +4054,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -4046,13 +4070,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -4064,13 +4088,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -4083,13 +4107,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -4102,11 +4126,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -4123,7 +4147,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bb5a9cec-37af-429f-9dac-3f85c8a94acc}</x14:id>
+          <x14:id>{03b06eb0-ebc8-4f2e-9c24-78f1f8bbe7e8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4135,7 +4159,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bb5a9cec-37af-429f-9dac-3f85c8a94acc}">
+          <x14:cfRule type="dataBar" id="{03b06eb0-ebc8-4f2e-9c24-78f1f8bbe7e8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4170,16 +4194,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4187,13 +4211,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4201,13 +4225,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4215,13 +4239,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4232,10 +4256,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4243,10 +4267,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4254,13 +4278,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
         <v>210</v>
-      </c>
-      <c r="D7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4268,21 +4292,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4311,42 +4335,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1273,10 +1273,7 @@
     <t>前端:事件循环机制</t>
   </si>
   <si>
-    <t>前端:promise原理</t>
-  </si>
-  <si>
-    <t>前端:generator原理</t>
+    <t>前端:promise对象</t>
   </si>
   <si>
     <t>序号</t>
@@ -1496,10 +1493,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1560,17 +1557,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1582,40 +1610,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1629,38 +1640,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1668,14 +1649,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1691,9 +1665,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1762,169 +1759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,6 +1778,162 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,17 +1956,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1978,7 +1969,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1993,21 +1984,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2028,6 +2004,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2039,156 +2030,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2579,7 +2576,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3888,7 +3885,7 @@
         <v>167</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +3901,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4cfe5b0e-e56e-42cd-b4cc-d86fc5bc6027}</x14:id>
+          <x14:id>{57fe0339-ed40-4808-a343-d06ffbaf47e8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3916,7 +3913,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4cfe5b0e-e56e-42cd-b4cc-d86fc5bc6027}">
+          <x14:cfRule type="dataBar" id="{57fe0339-ed40-4808-a343-d06ffbaf47e8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3957,25 +3954,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -3983,13 +3980,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -4001,13 +3998,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -4020,13 +4017,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -4039,10 +4036,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -4054,10 +4051,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -4070,13 +4067,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -4088,13 +4085,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -4107,13 +4104,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -4126,11 +4123,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -4147,7 +4144,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03b06eb0-ebc8-4f2e-9c24-78f1f8bbe7e8}</x14:id>
+          <x14:id>{368574f9-3e03-42ac-811f-21bd6bde85f6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4159,7 +4156,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03b06eb0-ebc8-4f2e-9c24-78f1f8bbe7e8}">
+          <x14:cfRule type="dataBar" id="{368574f9-3e03-42ac-811f-21bd6bde85f6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4194,16 +4191,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>201</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4211,13 +4208,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>204</v>
-      </c>
-      <c r="D2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4225,13 +4222,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
         <v>206</v>
       </c>
-      <c r="C3" t="s">
-        <v>207</v>
-      </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4239,13 +4236,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
         <v>208</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>209</v>
-      </c>
-      <c r="D4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4256,10 +4253,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4267,10 +4264,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4278,13 +4275,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4292,21 +4289,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" t="s">
         <v>215</v>
       </c>
-      <c r="C8" t="s">
-        <v>216</v>
-      </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4335,42 +4332,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
         <v>221</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" t="s">
         <v>224</v>
-      </c>
-      <c r="C3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
         <v>226</v>
-      </c>
-      <c r="C4" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27900" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1276,6 +1276,24 @@
     <t>前端:promise对象</t>
   </si>
   <si>
+    <t>前端:generator原理</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 18分
+3、每周学习理财知识3小时 0
+4、每周练习吉他2次，每次至少一小时 0
+5、每天11点之后不玩手机，12点前睡觉 2
+6.健身塑形 0
+7.饮食健康清淡 8</t>
+  </si>
+  <si>
+    <t>11.29-12.05</t>
+  </si>
+  <si>
+    <t>前端: 学习ES6的面向对象程序设计</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1493,10 +1511,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1564,44 +1582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1617,8 +1597,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,8 +1645,53 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1649,46 +1706,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1759,7 +1777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,7 +1789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,7 +1819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,19 +1843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,43 +1855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,13 +1873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,13 +1897,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,31 +1951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,16 +1992,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2000,21 +2018,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2044,148 +2047,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2573,10 +2591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3868,7 +3886,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:6">
+    <row r="42" customHeight="1" spans="1:10">
       <c r="A42" s="9" t="s">
         <v>163</v>
       </c>
@@ -3886,6 +3904,44 @@
       </c>
       <c r="F42" s="10" t="s">
         <v>167</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.28</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:8">
+      <c r="A43" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +3957,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{57fe0339-ed40-4808-a343-d06ffbaf47e8}</x14:id>
+          <x14:id>{ca198247-d8b7-4f1a-8fe6-9f75c4f95658}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3913,7 +3969,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{57fe0339-ed40-4808-a343-d06ffbaf47e8}">
+          <x14:cfRule type="dataBar" id="{ca198247-d8b7-4f1a-8fe6-9f75c4f95658}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3954,25 +4010,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -3980,13 +4036,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -3998,13 +4054,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -4017,13 +4073,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -4036,10 +4092,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -4051,10 +4107,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -4067,13 +4123,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -4085,13 +4141,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -4104,13 +4160,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -4123,11 +4179,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -4144,7 +4200,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{368574f9-3e03-42ac-811f-21bd6bde85f6}</x14:id>
+          <x14:id>{9eb150f3-4b89-4d08-8114-c1de65fb48cf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4156,7 +4212,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{368574f9-3e03-42ac-811f-21bd6bde85f6}">
+          <x14:cfRule type="dataBar" id="{9eb150f3-4b89-4d08-8114-c1de65fb48cf}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4191,16 +4247,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4208,13 +4264,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4222,13 +4278,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4236,13 +4292,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4253,10 +4309,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4264,10 +4320,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4275,13 +4331,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" t="s">
         <v>213</v>
-      </c>
-      <c r="D7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4289,21 +4345,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4332,42 +4388,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13420"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1291,6 +1291,9 @@
     <t>11.29-12.05</t>
   </si>
   <si>
+    <t>前端:generator函数</t>
+  </si>
+  <si>
     <t>前端: 学习ES6的面向对象程序设计</t>
   </si>
   <si>
@@ -1511,9 +1514,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -1575,13 +1578,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1590,15 +1586,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1613,7 +1624,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1622,9 +1633,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1636,40 +1647,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1682,9 +1670,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1698,7 +1685,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1706,7 +1709,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1783,7 +1786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,13 +1804,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,31 +1840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,13 +1870,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,61 +1930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1945,13 +1954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,35 +1977,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2024,26 +2009,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2062,145 +2030,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2594,7 +2597,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3923,25 +3926,25 @@
         <v>170</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>171</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3957,7 +3960,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ca198247-d8b7-4f1a-8fe6-9f75c4f95658}</x14:id>
+          <x14:id>{f0843e64-7398-4838-b029-bc49453dca84}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3969,7 +3972,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ca198247-d8b7-4f1a-8fe6-9f75c4f95658}">
+          <x14:cfRule type="dataBar" id="{f0843e64-7398-4838-b029-bc49453dca84}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4010,25 +4013,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -4036,13 +4039,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -4054,13 +4057,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -4073,13 +4076,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -4092,10 +4095,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -4107,10 +4110,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -4123,13 +4126,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -4141,13 +4144,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -4160,13 +4163,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -4179,11 +4182,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -4200,7 +4203,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9eb150f3-4b89-4d08-8114-c1de65fb48cf}</x14:id>
+          <x14:id>{3897166b-2c1e-4ad9-8332-5e98174fef30}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4212,7 +4215,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9eb150f3-4b89-4d08-8114-c1de65fb48cf}">
+          <x14:cfRule type="dataBar" id="{3897166b-2c1e-4ad9-8332-5e98174fef30}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4247,16 +4250,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4264,13 +4267,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4278,13 +4281,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
         <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4292,13 +4295,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4309,10 +4312,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
         <v>214</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4320,10 +4323,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4331,13 +4334,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4345,21 +4348,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4388,42 +4391,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1297,6 +1297,27 @@
     <t>前端: 学习ES6的面向对象程序设计</t>
   </si>
   <si>
+    <t>前端:Async函数</t>
+  </si>
+  <si>
+    <t>、每天阅读书籍半小时 0
+2、学习前端知识 18分
+3、每周学习理财知识3小时 0
+4、每周练习吉他2次，每次至少一小时 0
+5、每天11点之后不玩手机，12点前睡觉 2
+6.健身塑形 0
+7.饮食健康清淡 8</t>
+  </si>
+  <si>
+    <t>12.06-12.12</t>
+  </si>
+  <si>
+    <t>前端:css选择器,盒模型</t>
+  </si>
+  <si>
+    <t>前端:BFC,Position</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1514,8 +1535,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1578,14 +1599,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1594,15 +1607,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,6 +1618,22 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1641,7 +1662,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,7 +1707,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1665,27 +1715,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1699,17 +1728,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1786,7 +1807,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,37 +1915,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,7 +1951,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,109 +1975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1977,17 +1998,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2017,6 +2032,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2027,6 +2057,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2045,165 +2086,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2594,10 +2615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -3921,7 +3942,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:8">
+    <row r="43" customHeight="1" spans="1:10">
       <c r="A43" s="9" t="s">
         <v>170</v>
       </c>
@@ -3938,13 +3959,30 @@
         <v>172</v>
       </c>
       <c r="F43" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="H43" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>172</v>
+      <c r="I43" s="11">
+        <v>0.28</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3960,7 +3998,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f0843e64-7398-4838-b029-bc49453dca84}</x14:id>
+          <x14:id>{2c3ee227-a249-46b9-ab68-46d151818169}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3972,7 +4010,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f0843e64-7398-4838-b029-bc49453dca84}">
+          <x14:cfRule type="dataBar" id="{2c3ee227-a249-46b9-ab68-46d151818169}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4013,25 +4051,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:6">
@@ -4039,13 +4077,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -4057,13 +4095,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -4076,13 +4114,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -4095,10 +4133,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -4110,10 +4148,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -4126,13 +4164,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -4144,13 +4182,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -4163,13 +4201,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -4182,11 +4220,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -4203,7 +4241,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3897166b-2c1e-4ad9-8332-5e98174fef30}</x14:id>
+          <x14:id>{a68f2438-a154-4123-a62d-32867871068b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4215,7 +4253,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3897166b-2c1e-4ad9-8332-5e98174fef30}">
+          <x14:cfRule type="dataBar" id="{a68f2438-a154-4123-a62d-32867871068b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4250,16 +4288,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4267,13 +4305,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4281,13 +4319,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4295,13 +4333,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4312,10 +4350,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4323,10 +4361,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4334,13 +4372,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4348,21 +4386,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
         <v>219</v>
-      </c>
-      <c r="C8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4391,42 +4429,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27920" windowHeight="13420"/>
+    <workbookView windowWidth="27900" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1300,22 +1300,46 @@
     <t>前端:Async函数</t>
   </si>
   <si>
-    <t>、每天阅读书籍半小时 0
-2、学习前端知识 18分
+    <t>12.06-12.12</t>
+  </si>
+  <si>
+    <t>前端:css选择器,盒模型</t>
+  </si>
+  <si>
+    <t>前端:BFC,Position</t>
+  </si>
+  <si>
+    <t>前端:Myproject开发</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 20分
 3、每周学习理财知识3小时 0
 4、每周练习吉他2次，每次至少一小时 0
-5、每天11点之后不玩手机，12点前睡觉 2
+5、每天11点之后不玩手机，12点前睡觉 0
 6.健身塑形 0
+7.饮食健康清淡 5</t>
+  </si>
+  <si>
+    <t>12.13-12.19</t>
+  </si>
+  <si>
+    <t>12.20-12.26</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 20分
+3、每周学习理财知识3小时 0
+4、每周练习吉他2次，每次至少一小时 0
+5、每天11点之后不玩手机，12点前睡觉 0
+6.健身塑形 5
 7.饮食健康清淡 8</t>
   </si>
   <si>
-    <t>12.06-12.12</t>
-  </si>
-  <si>
-    <t>前端:css选择器,盒模型</t>
-  </si>
-  <si>
-    <t>前端:BFC,Position</t>
+    <t>12.27-12.31</t>
+  </si>
+  <si>
+    <t>前端: flex布局</t>
   </si>
   <si>
     <t>序号</t>
@@ -1349,6 +1373,10 @@
     <t>1.打羽毛球
 2.早睡，早起养成好习惯
 3.练习帕梅拉或者美丽芭蕾（每周2次）</t>
+  </si>
+  <si>
+    <t>1.由于忙的事情比较多,打球频率降低了
+2.天鹅臂和帕梅拉也没怎么练习</t>
   </si>
   <si>
     <t>事业更上一层楼</t>
@@ -1368,6 +1396,14 @@
 3.开发自己的项目   √</t>
   </si>
   <si>
+    <t xml:space="preserve">1.消费有所降低
+2.今年因为投资股票和基金亏损1万多
+1.月薪以及达到预期
+2.前端知识一直在不断🉐️学习
+3.自己的项目没怎么做,不过完善了博客,并使用得很好
+</t>
+  </si>
+  <si>
     <t>孝敬父母</t>
   </si>
   <si>
@@ -1379,11 +1415,20 @@
     <t>1.攒钱</t>
   </si>
   <si>
+    <t>1.没有给爸爸换车
+2.家里的家具基本置办齐全
+3.这个暂时保持和以前一样</t>
+  </si>
+  <si>
     <t>最少阅读24本书籍</t>
   </si>
   <si>
     <t>1.每天晚上睡前阅读30分钟以上
 2.利用零碎时间进行阅读（比如：午休等）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下半年基本没有读过书
+</t>
   </si>
   <si>
     <t>做职业规划</t>
@@ -1392,6 +1437,11 @@
     <t>1.多了解其他行业，为以后择业做打算
 2.了解自己适合什么，擅长什么
 3.尝试做一门副业来增加收入，并找到其他行业的可能性</t>
+  </si>
+  <si>
+    <t>1.今年行业变化剧烈,有考虑过其他方向,但暂时依旧打算做好技术
+2.暂时没有发现自己擅长什么
+3.卖考公资料计划失败</t>
   </si>
   <si>
     <t>软技能提升</t>
@@ -1408,6 +1458,12 @@
 4.尽快练车考驾照</t>
   </si>
   <si>
+    <t>1.英文水平有提高,但是提升不多
+2.创造英文环境情况较少,不过尽量阅读英文文章
+3.办公软件技能未学习
+4.拿到驾照</t>
+  </si>
+  <si>
     <t>兴趣爱好</t>
   </si>
   <si>
@@ -1417,6 +1473,10 @@
   <si>
     <t>1.每周至少2次吉他练习
 2.每周打一次羽毛球</t>
+  </si>
+  <si>
+    <t>1.吉他基本没碰过
+2.下半年羽毛球频率减少</t>
   </si>
   <si>
     <t>交友</t>
@@ -1431,11 +1491,44 @@
 2.认识更多有趣的人和事</t>
   </si>
   <si>
+    <t>1.今年新交的朋友很少
+2.还是不太能够放开自己,觉得维护朋友关系很费力</t>
+  </si>
+  <si>
     <t>经营生活</t>
   </si>
   <si>
     <t>1.更了解他，让2人更加合拍，共同规划未来
 2.打扮自己，皮肤保养，身材锻炼</t>
+  </si>
+  <si>
+    <t>1.很努力地经营了,生活也变得好起来了
+2.皮肤保养也不得当,皮肤有改善,但是效果不明显,化妆技术倒是改善不少</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
+    <t>1.今年锻炼健身很少,打球减少,天鹅臂和周六野也做的少
+2.跳槽使月薪达到预期,存款也差不多达到
+3.花了一些钱给家里添置家具
+4.书籍阅读得很少
+5.职业规划在尝试去做,但是还没有方向
+6.拿到驾照了,但是其他软技能有待提升
+7.吉他基本没有练习了,羽毛球次数偏少
+8.没有怎么结交新的朋友
+9.生活有在好好去经营,总体结果令人满意,目前2个人生活很开心</t>
+  </si>
+  <si>
+    <t>期许</t>
+  </si>
+  <si>
+    <t>1.希望明年我能好好提升专业技能,规划职业发展
+2.学习理财知识，努力赚钱，存钱
+3.多看书，学习些其他技能,
+4.继续保持一个好的身体,多锻炼,多打球
+5.吉他好好练一下
+6.好好经营生活,跟黎涛在一起,孝敬父母</t>
   </si>
   <si>
     <t>事件</t>
@@ -1489,9 +1582,6 @@
   </si>
   <si>
     <t>除了改善伙食，饮食尽量健康清淡</t>
-  </si>
-  <si>
-    <t>总结</t>
   </si>
   <si>
     <t>1、每天阅读书籍半小时
@@ -1536,8 +1626,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -1586,16 +1676,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1614,31 +1720,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1652,6 +1742,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1662,7 +1760,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1676,15 +1788,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1698,39 +1819,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1807,7 +1897,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,19 +2023,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,121 +2053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,13 +2065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,32 +2082,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2027,6 +2093,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2061,17 +2136,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2086,155 +2150,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2246,16 +2336,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2271,9 +2358,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2615,1374 +2699,1470 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="9"/>
-    <col min="2" max="8" width="16.125" style="10"/>
-    <col min="9" max="9" width="16.125" style="11"/>
-    <col min="10" max="16384" width="16.125" style="10"/>
+    <col min="1" max="1" width="16.125" style="8"/>
+    <col min="2" max="8" width="16.125" style="9"/>
+    <col min="9" max="9" width="16.125" style="10"/>
+    <col min="10" max="16384" width="16.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="7" customFormat="1" ht="29.25" customHeight="1" spans="1:11">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" s="8" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" s="7" customFormat="1" ht="30.75" customHeight="1" spans="1:11">
+      <c r="A2" s="4"/>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0.23</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="10">
         <v>0.18</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10">
         <v>0.1</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="10">
         <v>0.1</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>0.1</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>0.05</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>0.25</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="10">
         <v>0.15</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="10">
         <v>0.05</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="10">
         <v>0.05</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="10">
         <v>0.05</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.25</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>0.43</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>0.38</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>0.18</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="F19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="10">
         <v>0.15</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>0.13</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="G21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="10">
         <v>0.05</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="10">
         <v>0.11</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="F23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="10">
         <v>0.11</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>0.53</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="G25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="10">
         <v>0.25</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="20">
+      <c r="G26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="18">
         <v>0.35</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>0.25</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="10">
         <v>0</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="11">
+      <c r="G29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="10">
         <v>0.25</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:10">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <v>0.35</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:10">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>0.45</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:10">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="11">
+      <c r="H32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="10">
         <v>0.5</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:10">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
         <v>0.55</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:10">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="18">
         <v>0.7</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:10">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="20">
+      <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="18">
         <v>0.1</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:10">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="B36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="18">
         <v>0.05</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:10">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <v>0.18</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:10">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="10">
         <v>0.13</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:10">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="18">
         <v>0.2</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:10">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="10">
         <v>0.23</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:10">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="10">
         <v>0.32</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:10">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="10">
         <v>0.28</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:10">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="10">
         <v>0.28</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:10">
+      <c r="A44" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:3">
-      <c r="A44" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>177</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:10">
+      <c r="A45" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:10">
+      <c r="A46" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I46" s="18">
+        <v>0.33</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:3">
+      <c r="A47" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3998,7 +4178,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2c3ee227-a249-46b9-ab68-46d151818169}</x14:id>
+          <x14:id>{39412fef-9bd7-4427-b5db-3263fba96ff1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4010,7 +4190,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2c3ee227-a249-46b9-ab68-46d151818169}">
+          <x14:cfRule type="dataBar" id="{39412fef-9bd7-4427-b5db-3263fba96ff1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4031,10 +4211,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -4051,185 +4231,240 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" ht="51" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" ht="51" spans="1:7">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="3" ht="135" spans="1:7">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="4" ht="51" spans="1:7">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>192</v>
+        <v>199</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" ht="51" spans="1:6">
+      <c r="F4" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="1:7">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" ht="68" spans="1:7">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>197</v>
+        <v>206</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" ht="101" spans="1:6">
+      <c r="F6" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" ht="101" spans="1:7">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>200</v>
+        <v>209</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="8" ht="51" spans="1:7">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>203</v>
+        <v>213</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="9" ht="51" spans="1:7">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>206</v>
+        <v>217</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="51" spans="1:6">
+      <c r="F9" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" ht="51" spans="1:7">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>208</v>
+        <v>221</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" ht="135" customHeight="1" spans="2:7">
+      <c r="B11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" ht="118" spans="2:7">
+      <c r="B12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F$1:F$1048576">
@@ -4241,7 +4476,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a68f2438-a154-4123-a62d-32867871068b}</x14:id>
+          <x14:id>{40cd87cf-a6d6-434c-b203-137a6fae4b3e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4253,7 +4488,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a68f2438-a154-4123-a62d-32867871068b}">
+          <x14:cfRule type="dataBar" id="{40cd87cf-a6d6-434c-b203-137a6fae4b3e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4288,16 +4523,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4305,13 +4540,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4319,13 +4554,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4333,13 +4568,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4350,10 +4585,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4361,10 +4596,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4372,13 +4607,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4386,21 +4621,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4429,42 +4664,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/docs/年终总结/2021年个人计划/2021年计划.xlsx
+++ b/docs/年终总结/2021年个人计划/2021年计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13420"/>
+    <workbookView windowWidth="27920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="2021周计划" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259">
   <si>
     <t>2021年周计划</t>
   </si>
@@ -1340,6 +1340,24 @@
   </si>
   <si>
     <t>前端: flex布局</t>
+  </si>
+  <si>
+    <t>前端:  css优先级</t>
+  </si>
+  <si>
+    <t>前端: 常用布局</t>
+  </si>
+  <si>
+    <t>前端:grid布局</t>
+  </si>
+  <si>
+    <t>1、每天阅读书籍半小时 0
+2、学习前端知识 20分
+3、每周学习理财知识3小时 0
+4、每周练习吉他2次，每次至少一小时 0
+5、每天11点之后不玩手机，12点前睡觉 0
+6.健身塑形 5
+7.饮食健康清淡 5</t>
   </si>
   <si>
     <t>序号</t>
@@ -1627,8 +1645,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1676,6 +1694,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1697,14 +1722,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1712,25 +1729,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1742,9 +1745,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1760,21 +1763,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1788,9 +1777,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1805,22 +1808,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1897,13 +1915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,7 +1933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,13 +1951,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,13 +1975,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,67 +2065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2041,31 +2077,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,8 +2100,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2092,16 +2110,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2121,6 +2130,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2132,6 +2150,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2165,162 +2194,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2701,8 +2719,8 @@
   <sheetPr/>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="55.5" customHeight="1"/>
@@ -4154,7 +4172,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:3">
+    <row r="47" customHeight="1" spans="1:10">
       <c r="A47" s="8" t="s">
         <v>182</v>
       </c>
@@ -4163,6 +4181,27 @@
       </c>
       <c r="C47" s="9" t="s">
         <v>183</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4178,7 +4217,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39412fef-9bd7-4427-b5db-3263fba96ff1}</x14:id>
+          <x14:id>{deedbe62-3094-4a9d-aa34-31b947a89b0b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4190,7 +4229,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39412fef-9bd7-4427-b5db-3263fba96ff1}">
+          <x14:cfRule type="dataBar" id="{deedbe62-3094-4a9d-aa34-31b947a89b0b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4231,25 +4270,25 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27.75" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:7">
@@ -4257,13 +4296,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E2" s="5">
         <v>5</v>
@@ -4272,7 +4311,7 @@
         <v>0.5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="135" spans="1:7">
@@ -4280,13 +4319,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -4295,7 +4334,7 @@
         <v>0.7</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:7">
@@ -4303,13 +4342,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -4318,7 +4357,7 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:7">
@@ -4326,10 +4365,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -4338,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" ht="68" spans="1:7">
@@ -4346,10 +4385,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -4358,7 +4397,7 @@
         <v>0.3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" ht="101" spans="1:7">
@@ -4366,13 +4405,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -4381,7 +4420,7 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" ht="51" spans="1:7">
@@ -4389,13 +4428,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -4404,7 +4443,7 @@
         <v>0.3</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" ht="51" spans="1:7">
@@ -4412,13 +4451,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -4427,7 +4466,7 @@
         <v>0.3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" ht="51" spans="1:7">
@@ -4435,10 +4474,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -4447,23 +4486,23 @@
         <v>0.7</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" ht="118" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4476,7 +4515,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40cd87cf-a6d6-434c-b203-137a6fae4b3e}</x14:id>
+          <x14:id>{c6d5339d-fbb2-4929-a89c-c26b812f1cdc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4488,7 +4527,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40cd87cf-a6d6-434c-b203-137a6fae4b3e}">
+          <x14:cfRule type="dataBar" id="{c6d5339d-fbb2-4929-a89c-c26b812f1cdc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4523,16 +4562,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4540,13 +4579,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4554,13 +4593,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4568,13 +4607,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4585,10 +4624,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4596,10 +4635,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:4">
@@ -4607,13 +4646,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
         <v>242</v>
-      </c>
-      <c r="D7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4621,21 +4660,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" ht="152" spans="1:2">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4664,42 +4703,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
